--- a/data/CA_wateruse_2015_v2.xlsx
+++ b/data/CA_wateruse_2015_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayley\Documents\UW_GISPP\GEOG_575\Lab Activities\unit-3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8372F2A2-4685-49AE-A6BE-8BAE35446747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF08026-7ACC-4397-BCDC-66FEB11F0B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3B5BB29-DA7B-4A7B-A6F9-87275E83F509}"/>
   </bookViews>
@@ -224,30 +224,15 @@
     <t>County_name</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>TotalPop_K</t>
   </si>
   <si>
     <t>PubSupply_TPopServed_K</t>
   </si>
   <si>
-    <t>PubSupply_PerCapitaUse_galpersday</t>
-  </si>
-  <si>
-    <t>DomDeliv_PubSupply_mgald</t>
-  </si>
-  <si>
-    <t>Dom_PerCapitaUse_PubSupply_galpersday</t>
-  </si>
-  <si>
     <t>Industrial_TSelfSupplied_mgald</t>
   </si>
   <si>
-    <t>Industrial_RecWW_mgald</t>
-  </si>
-  <si>
     <t>Mining_TSelfSup_mgald</t>
   </si>
   <si>
@@ -257,37 +242,52 @@
     <t>Aquaculture_TSelfSup_mgald</t>
   </si>
   <si>
-    <t>Irrig_TSelfSup_gw_mgald</t>
-  </si>
-  <si>
-    <t>Irrig_TSelfSup_sw_mgald</t>
-  </si>
-  <si>
     <t>Irrig_TSelfSup_all_mgald</t>
   </si>
   <si>
-    <t>Irrig_Tconsumptive_mgald</t>
-  </si>
-  <si>
     <t>Irrig_TSelfSup_Crops_mgald</t>
   </si>
   <si>
-    <t>Irrig_Consump_Crops_mgald</t>
-  </si>
-  <si>
     <t>Irrig_Golf_SelfSup_mgald</t>
   </si>
   <si>
-    <t>Irrig_Golf_Consump_mgald</t>
-  </si>
-  <si>
-    <t>PubSupply_SelfSup_gw_mgald</t>
-  </si>
-  <si>
-    <t>PubSupply_SelfSup_sw_mgald</t>
-  </si>
-  <si>
     <t>PubSupply_SelfSup_all_mgald</t>
+  </si>
+  <si>
+    <t>Thermo_TSelfSup_mgald</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per_Municipal</t>
+  </si>
+  <si>
+    <t>Per_Industrial</t>
+  </si>
+  <si>
+    <t>Per_Mining</t>
+  </si>
+  <si>
+    <t>Per_Livestock</t>
+  </si>
+  <si>
+    <t>Per_Aquaculture</t>
+  </si>
+  <si>
+    <t>Per_Irrigation</t>
+  </si>
+  <si>
+    <t>Per_Irrig_Crops</t>
+  </si>
+  <si>
+    <t>Per_Irrig_Golf</t>
+  </si>
+  <si>
+    <t>Per_Thermo</t>
+  </si>
+  <si>
+    <t>Yr</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,25 +657,14 @@
     <col min="5" max="5" width="8.88671875" style="2"/>
     <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
@@ -692,70 +681,70 @@
         <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -781,61 +770,71 @@
         <v>1629.9</v>
       </c>
       <c r="H2" s="2">
-        <v>23.02</v>
+        <v>168.74</v>
       </c>
       <c r="I2" s="2">
-        <v>145.72</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="2">
-        <v>168.74</v>
+        <v>4.3</v>
       </c>
       <c r="K2" s="2">
-        <v>104</v>
+        <v>0.27</v>
       </c>
       <c r="L2" s="2">
-        <v>98.37</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>60</v>
+        <v>9.51</v>
       </c>
       <c r="N2" s="2">
-        <v>0.9</v>
+        <v>7.64</v>
       </c>
       <c r="O2" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="P2" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>6.43</v>
-      </c>
-      <c r="T2" s="2">
-        <v>3.08</v>
-      </c>
-      <c r="U2" s="2">
-        <v>9.51</v>
-      </c>
-      <c r="V2" s="2">
-        <v>7.97</v>
-      </c>
-      <c r="W2" s="2">
-        <v>7.64</v>
-      </c>
-      <c r="X2" s="2">
-        <v>6.55</v>
-      </c>
-      <c r="Y2" s="2">
         <v>1.87</v>
       </c>
-      <c r="Z2" s="2">
-        <v>1.42</v>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(H2,I2,J2,K2,L2,M2,P2)</f>
+        <v>183.72000000000003</v>
+      </c>
+      <c r="R2">
+        <f>(H2/$Q2)*100</f>
+        <v>91.846287829305453</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:Z17" si="0">(I2/$Q2)*100</f>
+        <v>0.48987589810581311</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>2.340518179838885</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0.14696276943174394</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>5.1763553233180915</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>4.1585020683649025</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>1.0178532549531896</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -861,60 +860,70 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="H3" s="2">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="K3" s="2">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>85</v>
+        <v>9.69</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>6.83</v>
-      </c>
-      <c r="T3" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="U3" s="2">
-        <v>9.69</v>
-      </c>
-      <c r="V3" s="2">
-        <v>6.99</v>
-      </c>
-      <c r="W3" s="2">
-        <v>9.69</v>
-      </c>
-      <c r="X3" s="2">
-        <v>6.99</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q59" si="1">SUM(H3,I3,J3,K3,L3,M3,P3)</f>
+        <v>9.8099999999999987</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:W59" si="2">(H3/$Q3)*100</f>
+        <v>1.0193679918450562</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0.20387359836901123</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>98.776758409785941</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>98.776758409785941</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -941,61 +950,71 @@
         <v>27.92</v>
       </c>
       <c r="H4" s="2">
-        <v>1.2</v>
+        <v>8.64</v>
       </c>
       <c r="I4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="L4" s="2">
         <v>7.44</v>
       </c>
-      <c r="J4" s="2">
-        <v>8.64</v>
-      </c>
-      <c r="K4" s="2">
-        <v>309</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2.99</v>
-      </c>
       <c r="M4" s="2">
-        <v>107</v>
+        <v>20.75</v>
       </c>
       <c r="N4" s="2">
-        <v>0.41</v>
+        <v>20.46</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="R4" s="2">
-        <v>7.44</v>
-      </c>
-      <c r="S4" s="2">
-        <v>14.55</v>
-      </c>
-      <c r="T4" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="U4" s="2">
-        <v>20.75</v>
-      </c>
-      <c r="V4" s="2">
-        <v>17.18</v>
-      </c>
-      <c r="W4" s="2">
-        <v>20.46</v>
-      </c>
-      <c r="X4" s="2">
-        <v>16.96</v>
-      </c>
-      <c r="Y4" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z4" s="2">
-        <v>0.22</v>
+      <c r="P4">
+        <v>0.27</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>39.690000000000005</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>21.768707482993197</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1.0330057949105567</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>4.913076341647769</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0.57949105568153181</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>18.74527588813303</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>52.28017132779037</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>51.549508692365833</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0.73066263542454002</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0.68027210884353739</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1021,61 +1040,71 @@
         <v>187.25899999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>19.079999999999998</v>
+        <v>28.81</v>
       </c>
       <c r="I5" s="2">
-        <v>9.73</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J5" s="2">
-        <v>28.81</v>
+        <v>1.46</v>
       </c>
       <c r="K5" s="2">
-        <v>154</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L5" s="2">
-        <v>18.690000000000001</v>
+        <v>21.27</v>
       </c>
       <c r="M5" s="2">
-        <v>100</v>
+        <v>752.68</v>
       </c>
       <c r="N5" s="2">
-        <v>4.0199999999999996</v>
+        <v>752.2</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1.46</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="R5" s="2">
-        <v>21.27</v>
-      </c>
-      <c r="S5" s="2">
-        <v>716.7</v>
-      </c>
-      <c r="T5" s="2">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="U5" s="2">
-        <v>752.68</v>
-      </c>
-      <c r="V5" s="2">
-        <v>591.87</v>
-      </c>
-      <c r="W5" s="2">
-        <v>752.2</v>
-      </c>
-      <c r="X5" s="2">
-        <v>591.51</v>
-      </c>
-      <c r="Y5" s="2">
         <v>0.48</v>
       </c>
-      <c r="Z5" s="2">
-        <v>0.36</v>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>808.53</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>3.5632567746403971</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.49719861971726464</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0.18057462308139463</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>3.5867562118907154E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>2.6307001595488106</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>93.092402260893223</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>93.033035261524006</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>5.9366999369225633E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1101,61 +1130,71 @@
         <v>33.145000000000003</v>
       </c>
       <c r="H6" s="2">
-        <v>0.19</v>
+        <v>6.59</v>
       </c>
       <c r="I6" s="2">
-        <v>6.4</v>
+        <v>0.17</v>
       </c>
       <c r="J6" s="2">
-        <v>6.59</v>
+        <v>0.02</v>
       </c>
       <c r="K6" s="2">
-        <v>199</v>
+        <v>0.25</v>
       </c>
       <c r="L6" s="2">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>101</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N6" s="2">
-        <v>0.17</v>
+        <v>8.18</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>6.03</v>
-      </c>
-      <c r="T6" s="2">
-        <v>2.77</v>
-      </c>
-      <c r="U6" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="V6" s="2">
-        <v>7.45</v>
-      </c>
-      <c r="W6" s="2">
-        <v>8.18</v>
-      </c>
-      <c r="X6" s="2">
-        <v>6.98</v>
-      </c>
-      <c r="Y6" s="2">
         <v>0.62</v>
       </c>
-      <c r="Z6" s="2">
-        <v>0.47</v>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>15.83</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>41.629816803537587</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1.0739102969046117</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0.12634238787113075</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1.5792798483891344</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>55.590650663297538</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>51.674036639292474</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>3.9166140240050535</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -1184,58 +1223,68 @@
         <v>2.46</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="2">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>136</v>
+        <v>0.24</v>
       </c>
       <c r="L7" s="2">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>88</v>
+        <v>695.25</v>
       </c>
       <c r="N7" s="2">
-        <v>0.84</v>
+        <v>695.18</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>636.13</v>
-      </c>
-      <c r="T7" s="2">
-        <v>59.12</v>
-      </c>
-      <c r="U7" s="2">
-        <v>695.25</v>
-      </c>
-      <c r="V7" s="2">
-        <v>556.70000000000005</v>
-      </c>
-      <c r="W7" s="2">
-        <v>695.18</v>
-      </c>
-      <c r="X7" s="2">
-        <v>556.65</v>
-      </c>
-      <c r="Y7" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z7" s="2">
-        <v>0.05</v>
+      <c r="P7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>699.06999999999994</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0.35189609052026266</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.12015964066545554</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>3.4331325904415864E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>99.453559729354723</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>99.44354642596592</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>1.0013303388787963E-2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>4.0053213555151852E-2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -1261,61 +1310,71 @@
         <v>1037.8720000000001</v>
       </c>
       <c r="H8" s="2">
-        <v>7.09</v>
+        <v>139.97</v>
       </c>
       <c r="I8" s="2">
-        <v>132.88</v>
+        <v>3.34</v>
       </c>
       <c r="J8" s="2">
-        <v>139.97</v>
+        <v>0.81</v>
       </c>
       <c r="K8" s="2">
-        <v>135</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="2">
-        <v>72.41</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>70</v>
+        <v>87.09</v>
       </c>
       <c r="N8" s="2">
-        <v>3.34</v>
+        <v>84.9</v>
       </c>
       <c r="O8" s="2">
-        <v>36.31</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>13.39</v>
-      </c>
-      <c r="T8" s="2">
-        <v>73.7</v>
-      </c>
-      <c r="U8" s="2">
-        <v>87.09</v>
-      </c>
-      <c r="V8" s="2">
-        <v>72.03</v>
-      </c>
-      <c r="W8" s="2">
-        <v>84.9</v>
-      </c>
-      <c r="X8" s="2">
-        <v>70.36</v>
-      </c>
-      <c r="Y8" s="2">
         <v>2.19</v>
       </c>
-      <c r="Z8" s="2">
-        <v>1.67</v>
+      <c r="P8">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>250.12</v>
+      </c>
+      <c r="R8">
+        <f>(H8/$Q8)*100</f>
+        <v>55.961138653446341</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1.3353590276667198</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.32384455461378542</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.15992323684631377</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>34.819286742363666</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>33.9437070206301</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0.8755797217335678</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>7.4004477850631707</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -1341,61 +1400,71 @@
         <v>24.774000000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>2.2799999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="I9" s="2">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>97</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L9" s="2">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>64</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>11.56</v>
-      </c>
-      <c r="T9" s="2">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="U9" s="2">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="V9" s="2">
-        <v>12.75</v>
-      </c>
-      <c r="W9" s="2">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="X9" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="Y9" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z9" s="2">
-        <v>0.05</v>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>19.39</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>12.377514182568333</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>2.939659618359979</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>84.682826199071698</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>84.321815368746783</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0.36101083032490977</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -1421,61 +1490,71 @@
         <v>156.26400000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>5.08</v>
+        <v>27.8</v>
       </c>
       <c r="I10" s="2">
-        <v>22.72</v>
+        <v>0.89</v>
       </c>
       <c r="J10" s="2">
-        <v>27.8</v>
+        <v>0.02</v>
       </c>
       <c r="K10" s="2">
-        <v>178</v>
+        <v>0.18</v>
       </c>
       <c r="L10" s="2">
-        <v>15.48</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>99</v>
+        <v>26.78</v>
       </c>
       <c r="N10" s="2">
-        <v>0.89</v>
+        <v>25.64</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>18.57</v>
-      </c>
-      <c r="T10" s="2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="U10" s="2">
-        <v>26.78</v>
-      </c>
-      <c r="V10" s="2">
-        <v>22.01</v>
-      </c>
-      <c r="W10" s="2">
-        <v>25.64</v>
-      </c>
-      <c r="X10" s="2">
-        <v>21.14</v>
-      </c>
-      <c r="Y10" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Z10" s="2">
-        <v>0.87</v>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>55.67</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>49.937129513202798</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1.5987066642716004</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>3.5925992455541587E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0.32333393209987421</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>48.104903897970182</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>46.057122328004311</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>2.0477815699658701</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1501,61 +1580,71 @@
         <v>872.74</v>
       </c>
       <c r="H11" s="2">
-        <v>109.36</v>
+        <v>157.08000000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>47.72</v>
+        <v>10.51</v>
       </c>
       <c r="J11" s="2">
-        <v>157.08000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="K11" s="2">
-        <v>180</v>
+        <v>13.24</v>
       </c>
       <c r="L11" s="2">
-        <v>101.92</v>
+        <v>8.24</v>
       </c>
       <c r="M11" s="2">
-        <v>117</v>
+        <v>1616.63</v>
       </c>
       <c r="N11" s="2">
-        <v>10.51</v>
+        <v>1614.96</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>7.88</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>13.24</v>
-      </c>
-      <c r="R11" s="2">
-        <v>8.24</v>
-      </c>
-      <c r="S11" s="2">
-        <v>858.67</v>
-      </c>
-      <c r="T11" s="2">
-        <v>757.96</v>
-      </c>
-      <c r="U11" s="2">
-        <v>1616.63</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1266.77</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1614.96</v>
-      </c>
-      <c r="X11" s="2">
-        <v>1265.5</v>
-      </c>
-      <c r="Y11" s="2">
         <v>1.67</v>
       </c>
-      <c r="Z11" s="2">
-        <v>1.27</v>
+      <c r="P11">
+        <v>0.02</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1813.6000000000001</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>8.6612262902514345</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.57951036612262896</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0.43449492721658572</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0.73003970004411112</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>0.45434494927216584</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>89.139280988089979</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>89.047198941332155</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>9.2082046757829716E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>1.102779003087781E-3</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1581,61 +1670,71 @@
         <v>18.576000000000001</v>
       </c>
       <c r="H12" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I12" s="2">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="J12" s="2">
-        <v>2.5499999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K12" s="2">
-        <v>137</v>
+        <v>1.98</v>
       </c>
       <c r="L12" s="2">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>95</v>
+        <v>660.65</v>
       </c>
       <c r="N12" s="2">
-        <v>0.27</v>
+        <v>660.62</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>628.89</v>
-      </c>
-      <c r="T12" s="2">
-        <v>31.76</v>
-      </c>
-      <c r="U12" s="2">
-        <v>660.65</v>
-      </c>
-      <c r="V12" s="2">
-        <v>522.49</v>
-      </c>
-      <c r="W12" s="2">
-        <v>660.62</v>
-      </c>
-      <c r="X12" s="2">
-        <v>522.47</v>
-      </c>
-      <c r="Y12" s="2">
         <v>0.03</v>
       </c>
-      <c r="Z12" s="2">
-        <v>0.02</v>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>665.73</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0.38303816862692081</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>4.0556982560497501E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>4.2059093025701114E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0.29741787211031501</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>99.236927883676557</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>99.232421552280954</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>4.5063313956108329E-3</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -1661,61 +1760,71 @@
         <v>126.107</v>
       </c>
       <c r="H13" s="2">
-        <v>10.18</v>
+        <v>11.49</v>
       </c>
       <c r="I13" s="2">
-        <v>1.31</v>
+        <v>0.48</v>
       </c>
       <c r="J13" s="2">
-        <v>11.49</v>
+        <v>0.36</v>
       </c>
       <c r="K13" s="2">
-        <v>91</v>
+        <v>1.71</v>
       </c>
       <c r="L13" s="2">
-        <v>7.25</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>57</v>
+        <v>59.97</v>
       </c>
       <c r="N13" s="2">
-        <v>0.48</v>
+        <v>59.58</v>
       </c>
       <c r="O13" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1.71</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>42.2</v>
-      </c>
-      <c r="T13" s="2">
-        <v>17.77</v>
-      </c>
-      <c r="U13" s="2">
-        <v>59.97</v>
-      </c>
-      <c r="V13" s="2">
-        <v>45.66</v>
-      </c>
-      <c r="W13" s="2">
-        <v>59.58</v>
-      </c>
-      <c r="X13" s="2">
-        <v>45.36</v>
-      </c>
-      <c r="Y13" s="2">
         <v>0.39</v>
       </c>
-      <c r="Z13" s="2">
-        <v>0.3</v>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>74.009999999999991</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>15.52492906364005</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.64856100526955829</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0.48642075395216866</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>2.3104985812728009</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>81.029590595865429</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>80.50263477908392</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>0.52695581678151604</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -1741,61 +1850,71 @@
         <v>167.596</v>
       </c>
       <c r="H14" s="2">
-        <v>1.54</v>
+        <v>24.47</v>
       </c>
       <c r="I14" s="2">
-        <v>22.93</v>
+        <v>1.2</v>
       </c>
       <c r="J14" s="2">
-        <v>24.47</v>
+        <v>9.31</v>
       </c>
       <c r="K14" s="2">
-        <v>146</v>
+        <v>5.86</v>
       </c>
       <c r="L14" s="2">
-        <v>19.95</v>
+        <v>10.88</v>
       </c>
       <c r="M14" s="2">
-        <v>119</v>
+        <v>1850.34</v>
       </c>
       <c r="N14" s="2">
-        <v>1.2</v>
+        <v>1849.88</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>9.31</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>5.86</v>
-      </c>
-      <c r="R14" s="2">
-        <v>10.88</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1303.78</v>
-      </c>
-      <c r="T14" s="2">
-        <v>546.55999999999995</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1850.34</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1349.93</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1849.88</v>
-      </c>
-      <c r="X14" s="2">
-        <v>1349.58</v>
-      </c>
-      <c r="Y14" s="2">
         <v>0.46</v>
       </c>
-      <c r="Z14" s="2">
-        <v>0.35</v>
+      <c r="P14">
+        <v>14.57</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1916.6299999999999</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>1.27672007638407</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>6.2609893406656472E-2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.48574842301330989</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.30574497946917251</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.56766303355368541</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>96.541325138393958</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>96.517324679254742</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>2.4000459139218319E-2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0.76018845577915406</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -1824,58 +1943,68 @@
         <v>2.42</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J15" s="2">
-        <v>2.42</v>
+        <v>0.83</v>
       </c>
       <c r="K15" s="2">
-        <v>136</v>
+        <v>0.23</v>
       </c>
       <c r="L15" s="2">
-        <v>1.56</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="M15" s="2">
-        <v>88</v>
+        <v>17.5</v>
       </c>
       <c r="N15" s="2">
-        <v>0.09</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="R15" s="2">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="S15" s="2">
-        <v>12.24</v>
-      </c>
-      <c r="T15" s="2">
-        <v>5.26</v>
-      </c>
-      <c r="U15" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="V15" s="2">
-        <v>12.64</v>
-      </c>
-      <c r="W15" s="2">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="X15" s="2">
-        <v>12.39</v>
-      </c>
-      <c r="Y15" s="2">
         <v>0.33</v>
       </c>
-      <c r="Z15" s="2">
-        <v>0.25</v>
+      <c r="P15">
+        <v>5.68</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>61.95</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>3.9063761097659397</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.14527845036319612</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>1.3397901533494752</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0.37126715092816787</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>56.820016142050044</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>28.248587570621471</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>27.71589991928975</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0.53268765133171914</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>9.1686844229217108</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -1901,61 +2030,71 @@
         <v>859.48199999999997</v>
       </c>
       <c r="H16" s="2">
-        <v>112.71</v>
+        <v>168.87</v>
       </c>
       <c r="I16" s="2">
-        <v>56.16</v>
+        <v>2.46</v>
       </c>
       <c r="J16" s="2">
-        <v>168.87</v>
+        <v>108.51</v>
       </c>
       <c r="K16" s="2">
-        <v>196</v>
+        <v>12.17</v>
       </c>
       <c r="L16" s="2">
-        <v>106.07</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M16" s="2">
-        <v>123</v>
+        <v>1617.68</v>
       </c>
       <c r="N16" s="2">
-        <v>2.46</v>
+        <v>1614.93</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>108.51</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>12.17</v>
-      </c>
-      <c r="R16" s="2">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1485.87</v>
-      </c>
-      <c r="T16" s="2">
-        <v>131.81</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1617.68</v>
-      </c>
-      <c r="V16" s="2">
-        <v>1273.83</v>
-      </c>
-      <c r="W16" s="2">
-        <v>1614.93</v>
-      </c>
-      <c r="X16" s="2">
-        <v>1271.74</v>
-      </c>
-      <c r="Y16" s="2">
         <v>2.75</v>
       </c>
-      <c r="Z16" s="2">
-        <v>2.09</v>
+      <c r="P16">
+        <v>1.03</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1915.24</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>8.8171717382677883</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0.12844343267684469</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>5.6656084877091129</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>0.63542950230780471</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0.23600175434932433</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>84.463565923852883</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>84.319980785697879</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0.14358513815500928</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>5.3779160836239848E-2</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1981,61 +2120,71 @@
         <v>143.16300000000001</v>
       </c>
       <c r="H17" s="2">
-        <v>23.35</v>
+        <v>29.07</v>
       </c>
       <c r="I17" s="2">
-        <v>5.72</v>
+        <v>3.08</v>
       </c>
       <c r="J17" s="2">
-        <v>29.07</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>203</v>
+        <v>14.87</v>
       </c>
       <c r="L17" s="2">
-        <v>17.25</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>120</v>
+        <v>637.41999999999996</v>
       </c>
       <c r="N17" s="2">
-        <v>3.08</v>
+        <v>637.13</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>14.87</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>604.47</v>
-      </c>
-      <c r="T17" s="2">
-        <v>32.950000000000003</v>
-      </c>
-      <c r="U17" s="2">
-        <v>637.41999999999996</v>
-      </c>
-      <c r="V17" s="2">
-        <v>482.53</v>
-      </c>
-      <c r="W17" s="2">
-        <v>637.13</v>
-      </c>
-      <c r="X17" s="2">
-        <v>482.31</v>
-      </c>
-      <c r="Y17" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Z17" s="2">
-        <v>0.22</v>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>684.43999999999994</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>4.2472678394015553</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0.4500029220968968</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>2.1725790427210567</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>93.130150195780487</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>93.087779790777873</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>4.2370405002629889E-2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -2061,61 +2210,71 @@
         <v>36.994999999999997</v>
       </c>
       <c r="H18" s="2">
-        <v>1.48</v>
+        <v>2.93</v>
       </c>
       <c r="I18" s="2">
-        <v>1.45</v>
+        <v>0.96</v>
       </c>
       <c r="J18" s="2">
-        <v>2.93</v>
+        <v>0.22</v>
       </c>
       <c r="K18" s="2">
-        <v>79</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L18" s="2">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>57</v>
+        <v>52.79</v>
       </c>
       <c r="N18" s="2">
-        <v>0.96</v>
+        <v>52.51</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>37.159999999999997</v>
-      </c>
-      <c r="T18" s="2">
-        <v>15.63</v>
-      </c>
-      <c r="U18" s="2">
-        <v>52.79</v>
-      </c>
-      <c r="V18" s="2">
-        <v>41.86</v>
-      </c>
-      <c r="W18" s="2">
-        <v>52.51</v>
-      </c>
-      <c r="X18" s="2">
-        <v>41.65</v>
-      </c>
-      <c r="Y18" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Z18" s="2">
-        <v>0.21</v>
+      <c r="P18">
+        <v>4.2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>61.17</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>4.7899297041033186</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>1.5693967631191759</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>0.35965342488147783</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0.11443518064410658</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>86.300474088605512</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:Z59" si="3">(N18/$Q18)*100</f>
+        <v>85.842733366029094</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>0.45774072257642634</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>6.8661108386463958</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
@@ -2147,55 +2306,65 @@
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>3.8</v>
+        <v>0.34</v>
       </c>
       <c r="K19" s="2">
-        <v>190</v>
+        <v>0.65</v>
       </c>
       <c r="L19" s="2">
-        <v>2.64</v>
+        <v>17.29</v>
       </c>
       <c r="M19" s="2">
-        <v>132</v>
+        <v>88.68</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>88.54</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="R19" s="2">
-        <v>17.29</v>
-      </c>
-      <c r="S19" s="2">
-        <v>62.45</v>
-      </c>
-      <c r="T19" s="2">
-        <v>26.23</v>
-      </c>
-      <c r="U19" s="2">
-        <v>88.68</v>
-      </c>
-      <c r="V19" s="2">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="W19" s="2">
-        <v>88.54</v>
-      </c>
-      <c r="X19" s="2">
-        <v>65.790000000000006</v>
-      </c>
-      <c r="Y19" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z19" s="2">
-        <v>0.11</v>
+      <c r="P19">
+        <v>0.38</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>111.14</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>3.419111031131906</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>0.30592046068022316</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.58484793953572067</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>15.556955191650172</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>79.791254273888796</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>79.665287025373416</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>0.12596724851538602</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>0.34191110311319062</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
@@ -2221,61 +2390,71 @@
         <v>10139.981</v>
       </c>
       <c r="H20" s="2">
-        <v>495.49</v>
+        <v>1256.44</v>
       </c>
       <c r="I20" s="2">
-        <v>760.95</v>
+        <v>103.27</v>
       </c>
       <c r="J20" s="2">
-        <v>1256.44</v>
+        <v>107.38</v>
       </c>
       <c r="K20" s="2">
-        <v>124</v>
+        <v>0.37</v>
       </c>
       <c r="L20" s="2">
-        <v>817.88</v>
+        <v>0.04</v>
       </c>
       <c r="M20" s="2">
-        <v>81</v>
+        <v>34.6</v>
       </c>
       <c r="N20" s="2">
-        <v>103.27</v>
+        <v>17.63</v>
       </c>
       <c r="O20" s="2">
-        <v>15.82</v>
-      </c>
-      <c r="P20" s="2">
-        <v>107.38</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="S20" s="2">
-        <v>24.15</v>
-      </c>
-      <c r="T20" s="2">
-        <v>10.45</v>
-      </c>
-      <c r="U20" s="2">
-        <v>34.6</v>
-      </c>
-      <c r="V20" s="2">
-        <v>26.42</v>
-      </c>
-      <c r="W20" s="2">
-        <v>17.63</v>
-      </c>
-      <c r="X20" s="2">
-        <v>13.47</v>
-      </c>
-      <c r="Y20" s="2">
         <v>16.97</v>
       </c>
-      <c r="Z20" s="2">
-        <v>12.95</v>
+      <c r="P20">
+        <v>436</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>1938.1</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>64.828440224962605</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>5.3284144265001805</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>5.5404777875238631</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>1.9090862184613797E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>2.0638769929312217E-3</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>1.7852535988855067</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="3"/>
+        <v>0.90965378463443569</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>0.87559981425107059</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>22.496259222950314</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -2301,61 +2480,71 @@
         <v>117.58499999999999</v>
       </c>
       <c r="H21" s="2">
-        <v>15.52</v>
+        <v>15.63</v>
       </c>
       <c r="I21" s="2">
-        <v>0.11</v>
+        <v>4.57</v>
       </c>
       <c r="J21" s="2">
-        <v>15.63</v>
+        <v>0.01</v>
       </c>
       <c r="K21" s="2">
-        <v>133</v>
+        <v>6.18</v>
       </c>
       <c r="L21" s="2">
-        <v>11.67</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>99</v>
+        <v>772.43</v>
       </c>
       <c r="N21" s="2">
-        <v>4.57</v>
+        <v>771.58</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>6.18</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>756.01</v>
-      </c>
-      <c r="T21" s="2">
-        <v>16.420000000000002</v>
-      </c>
-      <c r="U21" s="2">
-        <v>772.43</v>
-      </c>
-      <c r="V21" s="2">
-        <v>620.91999999999996</v>
-      </c>
-      <c r="W21" s="2">
-        <v>771.58</v>
-      </c>
-      <c r="X21" s="2">
-        <v>620.27</v>
-      </c>
-      <c r="Y21" s="2">
         <v>0.85</v>
       </c>
-      <c r="Z21" s="2">
-        <v>0.65</v>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>798.81999999999994</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>1.9566360381562806</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>0.57209383841165729</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>1.2518464735484841E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0.77364112065296309</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>96.696377156305559</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="3"/>
+        <v>96.589970206053948</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>0.10640695025162115</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -2381,61 +2570,71 @@
         <v>258.30799999999999</v>
       </c>
       <c r="H22" s="2">
-        <v>0.35</v>
+        <v>28.19</v>
       </c>
       <c r="I22" s="2">
-        <v>27.84</v>
+        <v>0.2</v>
       </c>
       <c r="J22" s="2">
-        <v>28.19</v>
+        <v>0.03</v>
       </c>
       <c r="K22" s="2">
-        <v>109</v>
+        <v>1.19</v>
       </c>
       <c r="L22" s="2">
-        <v>19.579999999999998</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>76</v>
+        <v>41.02</v>
       </c>
       <c r="N22" s="2">
-        <v>0.2</v>
+        <v>40.5</v>
       </c>
       <c r="O22" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1.19</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>28.83</v>
-      </c>
-      <c r="T22" s="2">
-        <v>12.19</v>
-      </c>
-      <c r="U22" s="2">
-        <v>41.02</v>
-      </c>
-      <c r="V22" s="2">
-        <v>35.229999999999997</v>
-      </c>
-      <c r="W22" s="2">
-        <v>40.5</v>
-      </c>
-      <c r="X22" s="2">
-        <v>34.83</v>
-      </c>
-      <c r="Y22" s="2">
         <v>0.52</v>
       </c>
-      <c r="Z22" s="2">
-        <v>0.4</v>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>70.63000000000001</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>39.912218603992635</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>0.28316579357213645</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>4.2474869035820463E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>1.6848364717542117</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>58.077304261645189</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="3"/>
+        <v>57.341073198357627</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>0.73623106328755472</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -2461,61 +2660,71 @@
         <v>4.9980000000000002</v>
       </c>
       <c r="H23" s="2">
-        <v>0.38</v>
+        <v>0.68</v>
       </c>
       <c r="I23" s="2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0.68</v>
+        <v>0.05</v>
       </c>
       <c r="K23" s="2">
-        <v>136</v>
+        <v>0.39</v>
       </c>
       <c r="L23" s="2">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>88</v>
+        <v>17.45</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>17.41</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>12.29</v>
-      </c>
-      <c r="T23" s="2">
-        <v>5.16</v>
-      </c>
-      <c r="U23" s="2">
-        <v>17.45</v>
-      </c>
-      <c r="V23" s="2">
-        <v>13.32</v>
-      </c>
-      <c r="W23" s="2">
-        <v>17.41</v>
-      </c>
-      <c r="X23" s="2">
-        <v>13.29</v>
-      </c>
-      <c r="Y23" s="2">
         <v>0.04</v>
       </c>
-      <c r="Z23" s="2">
-        <v>0.03</v>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>18.57</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>3.6618201400107702</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>0.26925148088314488</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>2.1001615508885298</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>93.968766828217554</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>93.753365643511046</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>0.2154011847065159</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -2541,61 +2750,71 @@
         <v>62.671999999999997</v>
       </c>
       <c r="H24" s="2">
-        <v>3.06</v>
+        <v>8.83</v>
       </c>
       <c r="I24" s="2">
-        <v>5.77</v>
+        <v>3.35</v>
       </c>
       <c r="J24" s="2">
-        <v>8.83</v>
+        <v>0.17</v>
       </c>
       <c r="K24" s="2">
-        <v>141</v>
+        <v>0.35</v>
       </c>
       <c r="L24" s="2">
-        <v>4.6399999999999997</v>
+        <v>0.01</v>
       </c>
       <c r="M24" s="2">
-        <v>74</v>
+        <v>68.7</v>
       </c>
       <c r="N24" s="2">
-        <v>3.35</v>
+        <v>68.56</v>
       </c>
       <c r="O24" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="S24" s="2">
-        <v>48.39</v>
-      </c>
-      <c r="T24" s="2">
-        <v>20.309999999999999</v>
-      </c>
-      <c r="U24" s="2">
-        <v>68.7</v>
-      </c>
-      <c r="V24" s="2">
-        <v>57.52</v>
-      </c>
-      <c r="W24" s="2">
-        <v>68.56</v>
-      </c>
-      <c r="X24" s="2">
-        <v>57.41</v>
-      </c>
-      <c r="Y24" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z24" s="2">
-        <v>0.11</v>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>81.41</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>10.846333374278345</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>4.1149735904680016</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>0.20881955533718222</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0.42992261392949271</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>1.2283503255128362E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>84.387667362731861</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>84.215698317160061</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>0.1719690455717971</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -2621,61 +2840,71 @@
         <v>213.131</v>
       </c>
       <c r="H25" s="2">
-        <v>47.47</v>
+        <v>50.17</v>
       </c>
       <c r="I25" s="2">
-        <v>2.7</v>
+        <v>5.63</v>
       </c>
       <c r="J25" s="2">
-        <v>50.17</v>
+        <v>0.74</v>
       </c>
       <c r="K25" s="2">
-        <v>235</v>
+        <v>24.86</v>
       </c>
       <c r="L25" s="2">
-        <v>25.23</v>
+        <v>34.33</v>
       </c>
       <c r="M25" s="2">
-        <v>118</v>
+        <v>970.62</v>
       </c>
       <c r="N25" s="2">
-        <v>5.63</v>
+        <v>970.36</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>24.86</v>
-      </c>
-      <c r="R25" s="2">
-        <v>34.33</v>
-      </c>
-      <c r="S25" s="2">
-        <v>661.26</v>
-      </c>
-      <c r="T25" s="2">
-        <v>309.36</v>
-      </c>
-      <c r="U25" s="2">
-        <v>970.62</v>
-      </c>
-      <c r="V25" s="2">
-        <v>745.33</v>
-      </c>
-      <c r="W25" s="2">
-        <v>970.36</v>
-      </c>
-      <c r="X25" s="2">
-        <v>745.13</v>
-      </c>
-      <c r="Y25" s="2">
         <v>0.26</v>
       </c>
-      <c r="Z25" s="2">
-        <v>0.2</v>
+      <c r="P25">
+        <v>0.21</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(H25,I25,J25,K25,L25,M25,P25)</f>
+        <v>1086.56</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>4.6173243999410989</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>0.51814902076277425</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>6.8104844647327342E-2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>2.2879546458548079</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>3.1595125901929024</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>89.329627448093078</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>89.305698718892657</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>2.3928729200412311E-2</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>1.9327050508025329E-2</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -2701,61 +2930,71 @@
         <v>4.4320000000000004</v>
       </c>
       <c r="H26" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="I26" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="K26" s="2">
-        <v>135</v>
+        <v>0.82</v>
       </c>
       <c r="L26" s="2">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="M26" s="2">
-        <v>90</v>
+        <v>171.49</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>171.16</v>
       </c>
       <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="S26" s="2">
-        <v>120.74</v>
-      </c>
-      <c r="T26" s="2">
-        <v>50.75</v>
-      </c>
-      <c r="U26" s="2">
-        <v>171.49</v>
-      </c>
-      <c r="V26" s="2">
-        <v>128.99</v>
-      </c>
-      <c r="W26" s="2">
-        <v>171.16</v>
-      </c>
-      <c r="X26" s="2">
-        <v>128.74</v>
-      </c>
-      <c r="Y26" s="2">
         <v>0.33</v>
       </c>
-      <c r="Z26" s="2">
-        <v>0.25</v>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>173.26000000000002</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>0.34630035784370305</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>4.6173381045827078E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0.47327715571972745</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>0.15583516102966638</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>98.978413944361066</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>98.787948747547034</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>0.1904651968140367</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -2781,61 +3020,71 @@
         <v>11.968999999999999</v>
       </c>
       <c r="H27" s="2">
-        <v>0.44</v>
+        <v>1.98</v>
       </c>
       <c r="I27" s="2">
-        <v>1.54</v>
+        <v>0.03</v>
       </c>
       <c r="J27" s="2">
-        <v>1.98</v>
+        <v>0.02</v>
       </c>
       <c r="K27" s="2">
-        <v>165</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L27" s="2">
-        <v>1.21</v>
+        <v>10.17</v>
       </c>
       <c r="M27" s="2">
-        <v>101</v>
+        <v>58.53</v>
       </c>
       <c r="N27" s="2">
-        <v>0.03</v>
+        <v>58.34</v>
       </c>
       <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R27" s="2">
-        <v>10.17</v>
-      </c>
-      <c r="S27" s="2">
-        <v>41.19</v>
-      </c>
-      <c r="T27" s="2">
-        <v>17.34</v>
-      </c>
-      <c r="U27" s="2">
-        <v>58.53</v>
-      </c>
-      <c r="V27" s="2">
-        <v>44.11</v>
-      </c>
-      <c r="W27" s="2">
-        <v>58.34</v>
-      </c>
-      <c r="X27" s="2">
-        <v>43.97</v>
-      </c>
-      <c r="Y27" s="2">
         <v>0.19</v>
       </c>
-      <c r="Z27" s="2">
-        <v>0.14000000000000001</v>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>70.8</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>2.7966101694915255</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>4.2372881355932202E-2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>2.8248587570621469E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>9.887005649717516E-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>14.364406779661017</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>82.669491525423737</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
+        <v>82.401129943502838</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>0.26836158192090398</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -2861,61 +3110,71 @@
         <v>387.55099999999999</v>
       </c>
       <c r="H28" s="2">
-        <v>38.17</v>
+        <v>38.229999999999997</v>
       </c>
       <c r="I28" s="2">
-        <v>0.06</v>
+        <v>2.16</v>
       </c>
       <c r="J28" s="2">
-        <v>38.229999999999997</v>
+        <v>6.61</v>
       </c>
       <c r="K28" s="2">
-        <v>99</v>
+        <v>0.97</v>
       </c>
       <c r="L28" s="2">
-        <v>25.99</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>67</v>
+        <v>168.86</v>
       </c>
       <c r="N28" s="2">
-        <v>2.16</v>
+        <v>166.87</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>6.61</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2">
-        <v>118.7</v>
-      </c>
-      <c r="T28" s="2">
-        <v>50.16</v>
-      </c>
-      <c r="U28" s="2">
-        <v>168.86</v>
-      </c>
-      <c r="V28" s="2">
-        <v>134.80000000000001</v>
-      </c>
-      <c r="W28" s="2">
-        <v>166.87</v>
-      </c>
-      <c r="X28" s="2">
-        <v>133.28</v>
-      </c>
-      <c r="Y28" s="2">
         <v>1.99</v>
       </c>
-      <c r="Z28" s="2">
-        <v>1.52</v>
+      <c r="P28">
+        <v>160.66</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>377.49</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>10.127420593923016</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>0.57220058809504892</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>1.7510397626427192</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>0.25696044928342471</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>44.732310789689791</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>44.205144507139259</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>0.52716628255053111</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>42.560067816365994</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
@@ -2941,61 +3200,71 @@
         <v>125.354</v>
       </c>
       <c r="H29" s="2">
-        <v>0.11</v>
+        <v>15.28</v>
       </c>
       <c r="I29" s="2">
-        <v>15.17</v>
+        <v>7.55</v>
       </c>
       <c r="J29" s="2">
-        <v>15.28</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>122</v>
+        <v>0.16</v>
       </c>
       <c r="L29" s="2">
-        <v>8.8000000000000007</v>
+        <v>0.59</v>
       </c>
       <c r="M29" s="2">
-        <v>70</v>
+        <v>102.7</v>
       </c>
       <c r="N29" s="2">
-        <v>7.55</v>
+        <v>101.94</v>
       </c>
       <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="S29" s="2">
-        <v>72.260000000000005</v>
-      </c>
-      <c r="T29" s="2">
-        <v>30.44</v>
-      </c>
-      <c r="U29" s="2">
-        <v>102.7</v>
-      </c>
-      <c r="V29" s="2">
-        <v>87.71</v>
-      </c>
-      <c r="W29" s="2">
-        <v>101.94</v>
-      </c>
-      <c r="X29" s="2">
-        <v>87.13</v>
-      </c>
-      <c r="Y29" s="2">
         <v>0.76</v>
       </c>
-      <c r="Z29" s="2">
-        <v>0.57999999999999996</v>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>126.28</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>12.100095026924294</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>5.9787773202407353</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0.12670256572695598</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>0.46721571111815013</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>81.327209375989867</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="3"/>
+        <v>80.725372188786821</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="3"/>
+        <v>0.60183718720304091</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
@@ -3021,61 +3290,71 @@
         <v>69.522000000000006</v>
       </c>
       <c r="H30" s="2">
-        <v>4.13</v>
+        <v>11.44</v>
       </c>
       <c r="I30" s="2">
-        <v>7.31</v>
+        <v>0.08</v>
       </c>
       <c r="J30" s="2">
-        <v>11.44</v>
+        <v>0.38</v>
       </c>
       <c r="K30" s="2">
-        <v>165</v>
+        <v>0.11</v>
       </c>
       <c r="L30" s="2">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>100</v>
+        <v>48.44</v>
       </c>
       <c r="N30" s="2">
-        <v>0.08</v>
+        <v>47.2</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
-      <c r="S30" s="2">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="T30" s="2">
-        <v>14.64</v>
-      </c>
-      <c r="U30" s="2">
-        <v>48.44</v>
-      </c>
-      <c r="V30" s="2">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="W30" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="X30" s="2">
-        <v>36.01</v>
-      </c>
-      <c r="Y30" s="2">
         <v>1.24</v>
       </c>
-      <c r="Z30" s="2">
-        <v>0.94</v>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>60.449999999999996</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>18.9247311827957</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>0.13234077750206785</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>0.62861869313482222</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>0.18196856906534328</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>80.132340777502066</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="3"/>
+        <v>78.081058726220036</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>2.0512820512820511</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -3101,61 +3380,71 @@
         <v>3149.5010000000002</v>
       </c>
       <c r="H31" s="2">
-        <v>281.35000000000002</v>
+        <v>457.54</v>
       </c>
       <c r="I31" s="2">
-        <v>176.19</v>
+        <v>18.11</v>
       </c>
       <c r="J31" s="2">
-        <v>457.54</v>
+        <v>11.86</v>
       </c>
       <c r="K31" s="2">
-        <v>145</v>
+        <v>0.03</v>
       </c>
       <c r="L31" s="2">
-        <v>282.7</v>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>90</v>
+        <v>11.89</v>
       </c>
       <c r="N31" s="2">
-        <v>18.11</v>
+        <v>2.54</v>
       </c>
       <c r="O31" s="2">
-        <v>1.81</v>
-      </c>
-      <c r="P31" s="2">
-        <v>11.86</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="T31" s="2">
-        <v>3.64</v>
-      </c>
-      <c r="U31" s="2">
-        <v>11.89</v>
-      </c>
-      <c r="V31" s="2">
-        <v>9.31</v>
-      </c>
-      <c r="W31" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="X31" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="Y31" s="2">
         <v>9.35</v>
       </c>
-      <c r="Z31" s="2">
-        <v>7.13</v>
+      <c r="P31">
+        <v>62.36</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>561.79</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>81.443243916766065</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>3.2236244860179073</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>2.1111091333060399</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>5.3400736930169631E-3</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>2.1164492069990568</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="3"/>
+        <v>0.452126239342103</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>1.6643229676569535</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>11.100233183217929</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
@@ -3181,61 +3470,71 @@
         <v>320.06200000000001</v>
       </c>
       <c r="H32" s="2">
-        <v>3.31</v>
+        <v>54.07</v>
       </c>
       <c r="I32" s="2">
-        <v>50.76</v>
+        <v>1.92</v>
       </c>
       <c r="J32" s="2">
-        <v>54.07</v>
+        <v>0.3</v>
       </c>
       <c r="K32" s="2">
-        <v>169</v>
+        <v>0.3</v>
       </c>
       <c r="L32" s="2">
-        <v>34.869999999999997</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>109</v>
+        <v>133.47999999999999</v>
       </c>
       <c r="N32" s="2">
-        <v>1.92</v>
+        <v>130.26</v>
       </c>
       <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>87.32</v>
-      </c>
-      <c r="T32" s="2">
-        <v>46.16</v>
-      </c>
-      <c r="U32" s="2">
-        <v>133.47999999999999</v>
-      </c>
-      <c r="V32" s="2">
-        <v>101.64</v>
-      </c>
-      <c r="W32" s="2">
-        <v>130.26</v>
-      </c>
-      <c r="X32" s="2">
-        <v>99.18</v>
-      </c>
-      <c r="Y32" s="2">
         <v>3.22</v>
       </c>
-      <c r="Z32" s="2">
-        <v>2.46</v>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>190.07</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>28.447414110590834</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>1.0101541537328351</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>0.15783658652075552</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>0.15783658652075552</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>70.226758562634814</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="3"/>
+        <v>68.532645867312041</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>1.6941126953227761</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
@@ -3261,61 +3560,71 @@
         <v>15.778</v>
       </c>
       <c r="H33" s="2">
-        <v>1.59</v>
+        <v>2.15</v>
       </c>
       <c r="I33" s="2">
-        <v>0.56000000000000005</v>
+        <v>1.35</v>
       </c>
       <c r="J33" s="2">
-        <v>2.15</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K33" s="2">
-        <v>136</v>
+        <v>0.27</v>
       </c>
       <c r="L33" s="2">
-        <v>1.38</v>
+        <v>0.02</v>
       </c>
       <c r="M33" s="2">
-        <v>87</v>
+        <v>102.78</v>
       </c>
       <c r="N33" s="2">
-        <v>1.35</v>
+        <v>101.7</v>
       </c>
       <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="S33" s="2">
-        <v>72.13</v>
-      </c>
-      <c r="T33" s="2">
-        <v>30.65</v>
-      </c>
-      <c r="U33" s="2">
-        <v>102.78</v>
-      </c>
-      <c r="V33" s="2">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="W33" s="2">
-        <v>101.7</v>
-      </c>
-      <c r="X33" s="2">
-        <v>75.44</v>
-      </c>
-      <c r="Y33" s="2">
         <v>1.08</v>
       </c>
-      <c r="Z33" s="2">
-        <v>0.82</v>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>106.86</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>2.011978289350552</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>1.2633352049410445</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>0.27138311809844656</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>0.25266704098820886</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>1.8716077110237695E-2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>96.181920269511508</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="3"/>
+        <v>95.171252105558679</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="3"/>
+        <v>1.0106681639528354</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
@@ -3341,61 +3650,71 @@
         <v>2343.2719999999999</v>
       </c>
       <c r="H34" s="2">
-        <v>329.79</v>
+        <v>440.73</v>
       </c>
       <c r="I34" s="2">
-        <v>110.94</v>
+        <v>5.23</v>
       </c>
       <c r="J34" s="2">
-        <v>440.73</v>
+        <v>11.44</v>
       </c>
       <c r="K34" s="2">
-        <v>188</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="L34" s="2">
-        <v>277.70999999999998</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="M34" s="2">
-        <v>119</v>
+        <v>741.79</v>
       </c>
       <c r="N34" s="2">
-        <v>5.23</v>
+        <v>712.46</v>
       </c>
       <c r="O34" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="P34" s="2">
-        <v>11.44</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="R34" s="2">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="S34" s="2">
-        <v>522.28</v>
-      </c>
-      <c r="T34" s="2">
-        <v>219.51</v>
-      </c>
-      <c r="U34" s="2">
-        <v>741.79</v>
-      </c>
-      <c r="V34" s="2">
-        <v>569.33000000000004</v>
-      </c>
-      <c r="W34" s="2">
-        <v>712.46</v>
-      </c>
-      <c r="X34" s="2">
-        <v>546.95000000000005</v>
-      </c>
-      <c r="Y34" s="2">
         <v>29.33</v>
       </c>
-      <c r="Z34" s="2">
-        <v>22.38</v>
+      <c r="P34">
+        <v>1.46</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>1222.47</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>36.052418464256789</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>0.42782235964890752</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>0.93581028573298319</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>0.33947663337341616</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="2"/>
+        <v>1.4454342437851238</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>60.679607679534051</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="3"/>
+        <v>58.280366798367247</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="3"/>
+        <v>2.3992408811668176</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>0.11943033366871988</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
@@ -3421,61 +3740,71 @@
         <v>1445.229</v>
       </c>
       <c r="H35" s="2">
-        <v>116.19</v>
+        <v>231.29</v>
       </c>
       <c r="I35" s="2">
-        <v>115.1</v>
+        <v>16.91</v>
       </c>
       <c r="J35" s="2">
-        <v>231.29</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K35" s="2">
-        <v>160</v>
+        <v>1.82</v>
       </c>
       <c r="L35" s="2">
-        <v>156.29</v>
+        <v>171.43</v>
       </c>
       <c r="M35" s="2">
-        <v>108</v>
+        <v>442.06</v>
       </c>
       <c r="N35" s="2">
-        <v>16.91</v>
+        <v>440.37</v>
       </c>
       <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="R35" s="2">
-        <v>171.43</v>
-      </c>
-      <c r="S35" s="2">
-        <v>281.14</v>
-      </c>
-      <c r="T35" s="2">
-        <v>160.91999999999999</v>
-      </c>
-      <c r="U35" s="2">
-        <v>442.06</v>
-      </c>
-      <c r="V35" s="2">
-        <v>334.12</v>
-      </c>
-      <c r="W35" s="2">
-        <v>440.37</v>
-      </c>
-      <c r="X35" s="2">
-        <v>332.83</v>
-      </c>
-      <c r="Y35" s="2">
         <v>1.69</v>
       </c>
-      <c r="Z35" s="2">
-        <v>1.29</v>
+      <c r="P35">
+        <v>1.89</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>867.58</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>26.659212983240739</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>1.9490997948316005</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>0.25127365776066762</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0.20977892528642891</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>19.759561077940941</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>50.953226215449867</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="3"/>
+        <v>50.758431499112476</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="3"/>
+        <v>0.19479471633739828</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>0.2178473454897531</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -3501,61 +3830,71 @@
         <v>49.261000000000003</v>
       </c>
       <c r="H36" s="2">
-        <v>3.67</v>
+        <v>5.24</v>
       </c>
       <c r="I36" s="2">
-        <v>1.57</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J36" s="2">
-        <v>5.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K36" s="2">
-        <v>106</v>
+        <v>0.64</v>
       </c>
       <c r="L36" s="2">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>74</v>
+        <v>15.12</v>
       </c>
       <c r="N36" s="2">
-        <v>4.0199999999999996</v>
+        <v>14.86</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>10.62</v>
-      </c>
-      <c r="T36" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="U36" s="2">
-        <v>15.12</v>
-      </c>
-      <c r="V36" s="2">
-        <v>12.54</v>
-      </c>
-      <c r="W36" s="2">
-        <v>14.86</v>
-      </c>
-      <c r="X36" s="2">
-        <v>12.34</v>
-      </c>
-      <c r="Y36" s="2">
         <v>0.26</v>
       </c>
-      <c r="Z36" s="2">
-        <v>0.2</v>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>25.299999999999997</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>20.711462450592887</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>15.889328063241107</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>1.1067193675889331</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>2.5296442687747041</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>59.762845849802368</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="3"/>
+        <v>58.735177865612656</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="3"/>
+        <v>1.0276679841897234</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
@@ -3581,61 +3920,71 @@
         <v>2127.386</v>
       </c>
       <c r="H37" s="2">
-        <v>267.8</v>
+        <v>337.7</v>
       </c>
       <c r="I37" s="2">
-        <v>69.900000000000006</v>
+        <v>46.01</v>
       </c>
       <c r="J37" s="2">
-        <v>337.7</v>
+        <v>9.98</v>
       </c>
       <c r="K37" s="2">
-        <v>159</v>
+        <v>6.86</v>
       </c>
       <c r="L37" s="2">
-        <v>217.55</v>
+        <v>10.38</v>
       </c>
       <c r="M37" s="2">
-        <v>102</v>
+        <v>33.33</v>
       </c>
       <c r="N37" s="2">
-        <v>46.01</v>
+        <v>27.82</v>
       </c>
       <c r="O37" s="2">
-        <v>3.93</v>
-      </c>
-      <c r="P37" s="2">
-        <v>9.98</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>6.86</v>
-      </c>
-      <c r="R37" s="2">
-        <v>10.38</v>
-      </c>
-      <c r="S37" s="2">
-        <v>23.41</v>
-      </c>
-      <c r="T37" s="2">
-        <v>9.92</v>
-      </c>
-      <c r="U37" s="2">
-        <v>33.33</v>
-      </c>
-      <c r="V37" s="2">
-        <v>26.03</v>
-      </c>
-      <c r="W37" s="2">
-        <v>27.82</v>
-      </c>
-      <c r="X37" s="2">
-        <v>21.83</v>
-      </c>
-      <c r="Y37" s="2">
         <v>5.51</v>
       </c>
-      <c r="Z37" s="2">
-        <v>4.2</v>
+      <c r="P37">
+        <v>13.04</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>457.3</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="2"/>
+        <v>73.84649026897003</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>10.061228952547561</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>2.1823748086595236</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>1.5001093374152636</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="2"/>
+        <v>2.2698447408703259</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>7.288432101465121</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="3"/>
+        <v>6.0835337852613165</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="3"/>
+        <v>1.2048983162038049</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>2.8515197900721625</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
@@ -3661,61 +4010,71 @@
         <v>3248.1210000000001</v>
       </c>
       <c r="H38" s="2">
-        <v>18.66</v>
+        <v>408.82</v>
       </c>
       <c r="I38" s="2">
-        <v>390.16</v>
+        <v>1.62</v>
       </c>
       <c r="J38" s="2">
-        <v>408.82</v>
+        <v>2.97</v>
       </c>
       <c r="K38" s="2">
-        <v>126</v>
+        <v>1.06</v>
       </c>
       <c r="L38" s="2">
-        <v>260.94</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>80</v>
+        <v>118.28</v>
       </c>
       <c r="N38" s="2">
-        <v>1.62</v>
+        <v>102.27</v>
       </c>
       <c r="O38" s="2">
-        <v>8.15</v>
-      </c>
-      <c r="P38" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="2">
-        <v>83.12</v>
-      </c>
-      <c r="T38" s="2">
-        <v>35.159999999999997</v>
-      </c>
-      <c r="U38" s="2">
-        <v>118.28</v>
-      </c>
-      <c r="V38" s="2">
-        <v>96.13</v>
-      </c>
-      <c r="W38" s="2">
-        <v>102.27</v>
-      </c>
-      <c r="X38" s="2">
-        <v>83.92</v>
-      </c>
-      <c r="Y38" s="2">
         <v>16.010000000000002</v>
       </c>
-      <c r="Z38" s="2">
-        <v>12.21</v>
+      <c r="P38">
+        <v>80.58</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>613.33000000000004</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="2"/>
+        <v>66.655797042375227</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>0.26413187028190371</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="2"/>
+        <v>0.48424176218349013</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>0.17282702623383822</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>19.2848874178664</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="3"/>
+        <v>16.674547144277955</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="3"/>
+        <v>2.6103402735884433</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>13.138114881059135</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -3741,61 +4100,71 @@
         <v>860.65800000000002</v>
       </c>
       <c r="H39" s="2">
-        <v>2.12</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="I39" s="2">
-        <v>65.42</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>67.540000000000006</v>
+        <v>0.08</v>
       </c>
       <c r="K39" s="2">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>36.72</v>
+        <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>43</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="U39" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="V39" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="W39" s="2">
-        <v>0</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.44</v>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>68.2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>99.032258064516128</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>0.11730205278592376</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>0.85043988269794712</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="3"/>
+        <v>0.85043988269794712</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -3821,61 +4190,71 @@
         <v>649.99300000000005</v>
       </c>
       <c r="H40" s="2">
-        <v>35.340000000000003</v>
+        <v>93.39</v>
       </c>
       <c r="I40" s="2">
-        <v>58.05</v>
+        <v>22.88</v>
       </c>
       <c r="J40" s="2">
-        <v>93.39</v>
+        <v>1.85</v>
       </c>
       <c r="K40" s="2">
-        <v>144</v>
+        <v>9.49</v>
       </c>
       <c r="L40" s="2">
-        <v>55.44</v>
+        <v>11.89</v>
       </c>
       <c r="M40" s="2">
-        <v>85</v>
+        <v>1190.25</v>
       </c>
       <c r="N40" s="2">
-        <v>22.88</v>
+        <v>1189.01</v>
       </c>
       <c r="O40" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="P40" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>9.49</v>
-      </c>
-      <c r="R40" s="2">
-        <v>11.89</v>
-      </c>
-      <c r="S40" s="2">
-        <v>676.65</v>
-      </c>
-      <c r="T40" s="2">
-        <v>513.6</v>
-      </c>
-      <c r="U40" s="2">
-        <v>1190.25</v>
-      </c>
-      <c r="V40" s="2">
-        <v>929.8</v>
-      </c>
-      <c r="W40" s="2">
-        <v>1189.01</v>
-      </c>
-      <c r="X40" s="2">
-        <v>928.85</v>
-      </c>
-      <c r="Y40" s="2">
         <v>1.24</v>
       </c>
-      <c r="Z40" s="2">
-        <v>0.95</v>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>1329.75</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="2"/>
+        <v>7.0231246474901292</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>1.7206241774769693</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>0.13912389546907314</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>0.71366798270351572</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>0.89415303628501608</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>89.5093062605753</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="3"/>
+        <v>89.416055649558189</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="3"/>
+        <v>9.3250611017108478E-2</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -3901,61 +4280,71 @@
         <v>238.869</v>
       </c>
       <c r="H41" s="2">
-        <v>14.12</v>
+        <v>29.1</v>
       </c>
       <c r="I41" s="2">
-        <v>14.98</v>
+        <v>3.88</v>
       </c>
       <c r="J41" s="2">
-        <v>29.1</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
-        <v>122</v>
+        <v>1.01</v>
       </c>
       <c r="L41" s="2">
-        <v>19.64</v>
+        <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>82</v>
+        <v>78.97</v>
       </c>
       <c r="N41" s="2">
-        <v>3.88</v>
+        <v>76.75</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <v>55.61</v>
-      </c>
-      <c r="T41" s="2">
-        <v>23.36</v>
-      </c>
-      <c r="U41" s="2">
-        <v>78.97</v>
-      </c>
-      <c r="V41" s="2">
-        <v>66.510000000000005</v>
-      </c>
-      <c r="W41" s="2">
-        <v>76.75</v>
-      </c>
-      <c r="X41" s="2">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="Y41" s="2">
         <v>2.2200000000000002</v>
       </c>
-      <c r="Z41" s="2">
-        <v>1.69</v>
+      <c r="P41">
+        <v>1985.38</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>2099.34</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="2"/>
+        <v>1.3861499328360343</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>0.18481999104480454</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="2"/>
+        <v>4.7634018310516633E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>4.8110358493621802E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>3.7616584259814982</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="3"/>
+        <v>3.6559109053321519</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="3"/>
+        <v>0.10574752064934695</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="3"/>
+        <v>94.571627273333519</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
@@ -3981,61 +4370,71 @@
         <v>743.05799999999999</v>
       </c>
       <c r="H42" s="2">
-        <v>5.4</v>
+        <v>68.39</v>
       </c>
       <c r="I42" s="2">
-        <v>62.99</v>
+        <v>0.17</v>
       </c>
       <c r="J42" s="2">
-        <v>68.39</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
-        <v>92</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L42" s="2">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>61</v>
+        <v>23.08</v>
       </c>
       <c r="N42" s="2">
-        <v>0.17</v>
+        <v>22.1</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2">
-        <v>16.12</v>
-      </c>
-      <c r="T42" s="2">
-        <v>6.96</v>
-      </c>
-      <c r="U42" s="2">
-        <v>23.08</v>
-      </c>
-      <c r="V42" s="2">
-        <v>17.940000000000001</v>
-      </c>
-      <c r="W42" s="2">
-        <v>22.1</v>
-      </c>
-      <c r="X42" s="2">
-        <v>17.2</v>
-      </c>
-      <c r="Y42" s="2">
         <v>0.98</v>
       </c>
-      <c r="Z42" s="2">
-        <v>0.74</v>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>91.71</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>74.572020499400296</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>0.18536691745720207</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>7.6327554247083221E-2</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>25.16628502889543</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="3"/>
+        <v>24.097699269436269</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="3"/>
+        <v>1.0685857594591648</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
@@ -4061,61 +4460,71 @@
         <v>436.79300000000001</v>
       </c>
       <c r="H43" s="2">
-        <v>21.98</v>
+        <v>49.94</v>
       </c>
       <c r="I43" s="2">
-        <v>27.96</v>
+        <v>6.36</v>
       </c>
       <c r="J43" s="2">
-        <v>49.94</v>
+        <v>6.89</v>
       </c>
       <c r="K43" s="2">
-        <v>114</v>
+        <v>0.88</v>
       </c>
       <c r="L43" s="2">
-        <v>29.59</v>
+        <v>0</v>
       </c>
       <c r="M43" s="2">
-        <v>68</v>
+        <v>55.95</v>
       </c>
       <c r="N43" s="2">
-        <v>6.36</v>
+        <v>52.95</v>
       </c>
       <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>6.89</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>39.380000000000003</v>
-      </c>
-      <c r="T43" s="2">
-        <v>16.57</v>
-      </c>
-      <c r="U43" s="2">
-        <v>55.95</v>
-      </c>
-      <c r="V43" s="2">
-        <v>45.38</v>
-      </c>
-      <c r="W43" s="2">
-        <v>52.95</v>
-      </c>
-      <c r="X43" s="2">
-        <v>43.09</v>
-      </c>
-      <c r="Y43" s="2">
         <v>3</v>
       </c>
-      <c r="Z43" s="2">
-        <v>2.29</v>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>120.02</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="2"/>
+        <v>41.609731711381436</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>5.299116813864357</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="2"/>
+        <v>5.740709881686386</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>0.73321113147808703</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>46.617230461589735</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="3"/>
+        <v>44.117647058823536</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="3"/>
+        <v>2.4995834027662056</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -4141,61 +4550,71 @@
         <v>1873.4490000000001</v>
       </c>
       <c r="H44" s="2">
-        <v>67.92</v>
+        <v>194.59</v>
       </c>
       <c r="I44" s="2">
-        <v>126.67</v>
+        <v>12.48</v>
       </c>
       <c r="J44" s="2">
-        <v>194.59</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2">
-        <v>104</v>
+        <v>0.27</v>
       </c>
       <c r="L44" s="2">
-        <v>109.36</v>
+        <v>0.05</v>
       </c>
       <c r="M44" s="2">
-        <v>58</v>
+        <v>8.1</v>
       </c>
       <c r="N44" s="2">
-        <v>12.48</v>
+        <v>5.75</v>
       </c>
       <c r="O44" s="2">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S44" s="2">
-        <v>5.37</v>
-      </c>
-      <c r="T44" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="U44" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="V44" s="2">
-        <v>6.59</v>
-      </c>
-      <c r="W44" s="2">
-        <v>5.75</v>
-      </c>
-      <c r="X44" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="Y44" s="2">
         <v>2.35</v>
       </c>
-      <c r="Z44" s="2">
-        <v>1.79</v>
+      <c r="P44">
+        <v>0.25</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>215.74</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>90.196532863632157</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>5.7847408918142209</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>0.12515064429405767</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>2.3176045239640307E-2</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>3.7545193288217296</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="3"/>
+        <v>2.6652452025586353</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="3"/>
+        <v>1.0892741262630945</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="3"/>
+        <v>0.11588022619820153</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -4221,61 +4640,71 @@
         <v>247.93199999999999</v>
       </c>
       <c r="H45" s="2">
-        <v>10.85</v>
+        <v>18.45</v>
       </c>
       <c r="I45" s="2">
-        <v>7.6</v>
+        <v>6.85</v>
       </c>
       <c r="J45" s="2">
-        <v>18.45</v>
+        <v>0.5</v>
       </c>
       <c r="K45" s="2">
-        <v>74</v>
+        <v>0.12</v>
       </c>
       <c r="L45" s="2">
-        <v>11.85</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>48</v>
+        <v>31.34</v>
       </c>
       <c r="N45" s="2">
-        <v>6.85</v>
+        <v>30.9</v>
       </c>
       <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <v>22.02</v>
-      </c>
-      <c r="T45" s="2">
-        <v>9.32</v>
-      </c>
-      <c r="U45" s="2">
-        <v>31.34</v>
-      </c>
-      <c r="V45" s="2">
-        <v>26.49</v>
-      </c>
-      <c r="W45" s="2">
-        <v>30.9</v>
-      </c>
-      <c r="X45" s="2">
-        <v>26.15</v>
-      </c>
-      <c r="Y45" s="2">
         <v>0.44</v>
       </c>
-      <c r="Z45" s="2">
-        <v>0.34</v>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>57.26</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>32.221446035626968</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>11.962975899406217</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>0.87320991966468742</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>0.209570380719525</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>54.732797764582607</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="3"/>
+        <v>53.964373035277681</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="3"/>
+        <v>0.768424729304925</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -4301,61 +4730,71 @@
         <v>166.244</v>
       </c>
       <c r="H46" s="2">
-        <v>11.78</v>
+        <v>33.47</v>
       </c>
       <c r="I46" s="2">
-        <v>21.69</v>
+        <v>15.16</v>
       </c>
       <c r="J46" s="2">
-        <v>33.47</v>
+        <v>0.89</v>
       </c>
       <c r="K46" s="2">
-        <v>201</v>
+        <v>0.62</v>
       </c>
       <c r="L46" s="2">
-        <v>21.77</v>
+        <v>31.05</v>
       </c>
       <c r="M46" s="2">
-        <v>131</v>
+        <v>160.97</v>
       </c>
       <c r="N46" s="2">
-        <v>15.16</v>
+        <v>160.51</v>
       </c>
       <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="R46" s="2">
-        <v>31.05</v>
-      </c>
-      <c r="S46" s="2">
-        <v>101.28</v>
-      </c>
-      <c r="T46" s="2">
-        <v>59.69</v>
-      </c>
-      <c r="U46" s="2">
-        <v>160.97</v>
-      </c>
-      <c r="V46" s="2">
-        <v>120.66</v>
-      </c>
-      <c r="W46" s="2">
-        <v>160.51</v>
-      </c>
-      <c r="X46" s="2">
-        <v>120.31</v>
-      </c>
-      <c r="Y46" s="2">
         <v>0.46</v>
       </c>
-      <c r="Z46" s="2">
-        <v>0.35</v>
+      <c r="P46">
+        <v>1.06</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>243.22</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>13.761203848367732</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>6.2330400460488447</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>0.36592385494613933</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>0.25491324726584985</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>12.766219883233287</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>66.182879697393304</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="3"/>
+        <v>65.993750513937997</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="3"/>
+        <v>0.18912918345530796</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="3"/>
+        <v>0.43581942274484003</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
@@ -4381,60 +4820,70 @@
         <v>2.7320000000000002</v>
       </c>
       <c r="H47" s="2">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I47" s="2">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="J47" s="2">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>135</v>
+        <v>0.15</v>
       </c>
       <c r="L47" s="2">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>88</v>
+        <v>23.36</v>
       </c>
       <c r="N47" s="2">
-        <v>0.45</v>
+        <v>23.36</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
       </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <v>16.46</v>
-      </c>
-      <c r="T47" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="U47" s="2">
-        <v>23.36</v>
-      </c>
-      <c r="V47" s="2">
-        <v>17.37</v>
-      </c>
-      <c r="W47" s="2">
-        <v>23.36</v>
-      </c>
-      <c r="X47" s="2">
-        <v>17.37</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2">
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>24.33</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>1.5207562679819155</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>1.8495684340320593</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>0.61652281134401976</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>96.013152486641999</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="3"/>
+        <v>96.013152486641999</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4461,61 +4910,71 @@
         <v>28.779</v>
       </c>
       <c r="H48" s="2">
-        <v>2.35</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="I48" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="J48" s="2">
-        <v>4.6100000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="K48" s="2">
-        <v>160</v>
+        <v>0.9</v>
       </c>
       <c r="L48" s="2">
-        <v>2.59</v>
+        <v>18.95</v>
       </c>
       <c r="M48" s="2">
-        <v>90</v>
+        <v>201.48</v>
       </c>
       <c r="N48" s="2">
-        <v>2.29</v>
+        <v>201.17</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="R48" s="2">
-        <v>18.95</v>
-      </c>
-      <c r="S48" s="2">
-        <v>141.91999999999999</v>
-      </c>
-      <c r="T48" s="2">
-        <v>59.56</v>
-      </c>
-      <c r="U48" s="2">
-        <v>201.48</v>
-      </c>
-      <c r="V48" s="2">
-        <v>153.21</v>
-      </c>
-      <c r="W48" s="2">
-        <v>201.17</v>
-      </c>
-      <c r="X48" s="2">
-        <v>152.97</v>
-      </c>
-      <c r="Y48" s="2">
         <v>0.31</v>
       </c>
-      <c r="Z48" s="2">
-        <v>0.24</v>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>228.58999999999997</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>2.0167111422196951</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>1.0017936042696531</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>0.15748720416466161</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>0.39371801041165411</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="2"/>
+        <v>8.2899514414453819</v>
+      </c>
+      <c r="W48">
+        <f t="shared" ref="W48:W59" si="4">(M48/$Q48)*100</f>
+        <v>88.140338597488949</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="3"/>
+        <v>88.004724616124946</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="3"/>
+        <v>0.1356139813640142</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
@@ -4541,61 +5000,71 @@
         <v>412.83300000000003</v>
       </c>
       <c r="H49" s="2">
-        <v>8.65</v>
+        <v>52.18</v>
       </c>
       <c r="I49" s="2">
-        <v>43.53</v>
+        <v>6.08</v>
       </c>
       <c r="J49" s="2">
-        <v>52.18</v>
+        <v>0.1</v>
       </c>
       <c r="K49" s="2">
-        <v>126</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L49" s="2">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>76</v>
+        <v>395.52</v>
       </c>
       <c r="N49" s="2">
-        <v>6.08</v>
+        <v>394.73</v>
       </c>
       <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <v>278.57</v>
-      </c>
-      <c r="T49" s="2">
-        <v>116.95</v>
-      </c>
-      <c r="U49" s="2">
-        <v>395.52</v>
-      </c>
-      <c r="V49" s="2">
-        <v>287.57</v>
-      </c>
-      <c r="W49" s="2">
-        <v>394.73</v>
-      </c>
-      <c r="X49" s="2">
-        <v>286.97000000000003</v>
-      </c>
-      <c r="Y49" s="2">
         <v>0.79</v>
       </c>
-      <c r="Z49" s="2">
-        <v>0.6</v>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>455.02</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="2"/>
+        <v>11.46762779658037</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>1.336205001977935</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="2"/>
+        <v>2.197705595358446E-2</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>0.25053843787086283</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="4"/>
+        <v>86.923651707617239</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="3"/>
+        <v>86.750032965583941</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="3"/>
+        <v>0.17361874203331723</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
@@ -4621,61 +5090,71 @@
         <v>424.88499999999999</v>
       </c>
       <c r="H50" s="2">
-        <v>13.66</v>
+        <v>40.49</v>
       </c>
       <c r="I50" s="2">
-        <v>26.83</v>
+        <v>14.5</v>
       </c>
       <c r="J50" s="2">
-        <v>40.49</v>
+        <v>0.13</v>
       </c>
       <c r="K50" s="2">
-        <v>95</v>
+        <v>3.87</v>
       </c>
       <c r="L50" s="2">
-        <v>26.76</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="M50" s="2">
-        <v>63</v>
+        <v>210.34</v>
       </c>
       <c r="N50" s="2">
-        <v>14.5</v>
+        <v>208.95</v>
       </c>
       <c r="O50" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="R50" s="2">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="S50" s="2">
-        <v>148.01</v>
-      </c>
-      <c r="T50" s="2">
-        <v>62.33</v>
-      </c>
-      <c r="U50" s="2">
-        <v>210.34</v>
-      </c>
-      <c r="V50" s="2">
-        <v>175.58</v>
-      </c>
-      <c r="W50" s="2">
-        <v>208.95</v>
-      </c>
-      <c r="X50" s="2">
-        <v>174.52</v>
-      </c>
-      <c r="Y50" s="2">
         <v>1.39</v>
       </c>
-      <c r="Z50" s="2">
-        <v>1.06</v>
+      <c r="P50">
+        <v>25.24</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>312.01</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>12.97714816832794</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>4.6472869459312207</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="2"/>
+        <v>4.166533123938336E-2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>1.240344860741643</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>5.589564437037275</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="4"/>
+        <v>67.414505945322261</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="3"/>
+        <v>66.969007403608856</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="3"/>
+        <v>0.44549854171340658</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="3"/>
+        <v>8.0894843114002768</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
@@ -4701,61 +5180,71 @@
         <v>490.30399999999997</v>
       </c>
       <c r="H51" s="2">
-        <v>66.239999999999995</v>
+        <v>80.48</v>
       </c>
       <c r="I51" s="2">
-        <v>14.24</v>
+        <v>15.22</v>
       </c>
       <c r="J51" s="2">
-        <v>80.48</v>
+        <v>0.45</v>
       </c>
       <c r="K51" s="2">
-        <v>164</v>
+        <v>16.64</v>
       </c>
       <c r="L51" s="2">
-        <v>45.61</v>
+        <v>0.32</v>
       </c>
       <c r="M51" s="2">
-        <v>93</v>
+        <v>1034.1600000000001</v>
       </c>
       <c r="N51" s="2">
-        <v>15.22</v>
+        <v>1033.54</v>
       </c>
       <c r="O51" s="2">
-        <v>1.04</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>16.64</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="S51" s="2">
-        <v>598.85</v>
-      </c>
-      <c r="T51" s="2">
-        <v>435.31</v>
-      </c>
-      <c r="U51" s="2">
-        <v>1034.1600000000001</v>
-      </c>
-      <c r="V51" s="2">
-        <v>809.88</v>
-      </c>
-      <c r="W51" s="2">
-        <v>1033.54</v>
-      </c>
-      <c r="X51" s="2">
-        <v>809.41</v>
-      </c>
-      <c r="Y51" s="2">
         <v>0.62</v>
       </c>
-      <c r="Z51" s="2">
-        <v>0.47</v>
+      <c r="P51">
+        <v>0.42</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>1147.69</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>7.0123465395707907</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>1.3261420766931837</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>3.9209194120363514E-2</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>1.4498688670285529</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="2"/>
+        <v>2.7882093596702941E-2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="4"/>
+        <v>90.107955981144741</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="3"/>
+        <v>90.053934424801113</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="3"/>
+        <v>5.402155634361195E-2</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="3"/>
+        <v>3.6595247845672606E-2</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -4781,61 +5270,71 @@
         <v>83.463999999999999</v>
       </c>
       <c r="H52" s="2">
-        <v>2.98</v>
+        <v>13.61</v>
       </c>
       <c r="I52" s="2">
-        <v>10.63</v>
+        <v>8.58</v>
       </c>
       <c r="J52" s="2">
-        <v>13.61</v>
+        <v>0.2</v>
       </c>
       <c r="K52" s="2">
-        <v>163</v>
+        <v>0.13</v>
       </c>
       <c r="L52" s="2">
-        <v>8.2100000000000009</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
-        <v>98</v>
+        <v>636.09</v>
       </c>
       <c r="N52" s="2">
-        <v>8.58</v>
+        <v>635.98</v>
       </c>
       <c r="O52" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2">
-        <v>465.84</v>
-      </c>
-      <c r="T52" s="2">
-        <v>170.25</v>
-      </c>
-      <c r="U52" s="2">
-        <v>636.09</v>
-      </c>
-      <c r="V52" s="2">
-        <v>483.16</v>
-      </c>
-      <c r="W52" s="2">
-        <v>635.98</v>
-      </c>
-      <c r="X52" s="2">
-        <v>483.08</v>
-      </c>
-      <c r="Y52" s="2">
         <v>0.11</v>
       </c>
-      <c r="Z52" s="2">
-        <v>0.08</v>
+      <c r="P52">
+        <v>0.01</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>658.62</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>2.066441954389481</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>1.3027238771977772</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="2"/>
+        <v>3.0366523944004131E-2</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>1.9738240563602686E-2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>96.579211077707939</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="3"/>
+        <v>96.562509489538741</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="3"/>
+        <v>1.670158816920227E-2</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="3"/>
+        <v>1.5183261972002064E-3</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
@@ -4861,61 +5360,71 @@
         <v>31.97</v>
       </c>
       <c r="H53" s="2">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
       <c r="I53" s="2">
-        <v>0.03</v>
+        <v>1.79</v>
       </c>
       <c r="J53" s="2">
-        <v>5.26</v>
+        <v>0.3</v>
       </c>
       <c r="K53" s="2">
-        <v>165</v>
+        <v>1.31</v>
       </c>
       <c r="L53" s="2">
-        <v>3.67</v>
+        <v>258.42</v>
       </c>
       <c r="M53" s="2">
-        <v>115</v>
+        <v>269.33</v>
       </c>
       <c r="N53" s="2">
-        <v>1.79</v>
+        <v>269.14999999999998</v>
       </c>
       <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>1.31</v>
-      </c>
-      <c r="R53" s="2">
-        <v>258.42</v>
-      </c>
-      <c r="S53" s="2">
-        <v>189.75</v>
-      </c>
-      <c r="T53" s="2">
-        <v>79.58</v>
-      </c>
-      <c r="U53" s="2">
-        <v>269.33</v>
-      </c>
-      <c r="V53" s="2">
-        <v>208.91</v>
-      </c>
-      <c r="W53" s="2">
-        <v>269.14999999999998</v>
-      </c>
-      <c r="X53" s="2">
-        <v>208.77</v>
-      </c>
-      <c r="Y53" s="2">
         <v>0.18</v>
       </c>
-      <c r="Z53" s="2">
-        <v>0.14000000000000001</v>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>536.41000000000008</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="2"/>
+        <v>0.98059320296042185</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>0.33369996830782417</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="2"/>
+        <v>5.5927368990138136E-2</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>0.2442161779236032</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="2"/>
+        <v>48.175835648104993</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="4"/>
+        <v>50.209727633713008</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="3"/>
+        <v>50.17617121231892</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="3"/>
+        <v>3.3556421394082873E-2</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
@@ -4941,61 +5450,71 @@
         <v>7.3159999999999998</v>
       </c>
       <c r="H54" s="2">
-        <v>0.05</v>
+        <v>0.99</v>
       </c>
       <c r="I54" s="2">
-        <v>0.94</v>
+        <v>0.5</v>
       </c>
       <c r="J54" s="2">
-        <v>0.99</v>
+        <v>0.02</v>
       </c>
       <c r="K54" s="2">
-        <v>135</v>
+        <v>0.08</v>
       </c>
       <c r="L54" s="2">
-        <v>0.64</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="M54" s="2">
-        <v>87</v>
+        <v>10.72</v>
       </c>
       <c r="N54" s="2">
-        <v>0.5</v>
+        <v>10.69</v>
       </c>
       <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="R54" s="2">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="S54" s="2">
-        <v>7.55</v>
-      </c>
-      <c r="T54" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="U54" s="2">
-        <v>10.72</v>
-      </c>
-      <c r="V54" s="2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="W54" s="2">
-        <v>10.69</v>
-      </c>
-      <c r="X54" s="2">
-        <v>8.19</v>
-      </c>
-      <c r="Y54" s="2">
         <v>0.03</v>
       </c>
-      <c r="Z54" s="2">
-        <v>0.02</v>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>21.93</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>4.5143638850889189</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>2.2799817601459189</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="2"/>
+        <v>9.1199270405836752E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>0.36479708162334701</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="2"/>
+        <v>43.866849065207475</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="4"/>
+        <v>48.882808937528502</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="3"/>
+        <v>48.746010031919745</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="3"/>
+        <v>0.13679890560875513</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
@@ -5021,61 +5540,71 @@
         <v>395.15600000000001</v>
       </c>
       <c r="H55" s="2">
-        <v>66.84</v>
+        <v>70.33</v>
       </c>
       <c r="I55" s="2">
-        <v>3.49</v>
+        <v>15.98</v>
       </c>
       <c r="J55" s="2">
-        <v>70.33</v>
+        <v>1.27</v>
       </c>
       <c r="K55" s="2">
-        <v>178</v>
+        <v>41.47</v>
       </c>
       <c r="L55" s="2">
-        <v>44.62</v>
+        <v>0.02</v>
       </c>
       <c r="M55" s="2">
-        <v>113</v>
+        <v>1395.96</v>
       </c>
       <c r="N55" s="2">
-        <v>15.98</v>
+        <v>1394.94</v>
       </c>
       <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>1.27</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>41.47</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="S55" s="2">
-        <v>1148.6500000000001</v>
-      </c>
-      <c r="T55" s="2">
-        <v>247.31</v>
-      </c>
-      <c r="U55" s="2">
-        <v>1395.96</v>
-      </c>
-      <c r="V55" s="2">
-        <v>1086.51</v>
-      </c>
-      <c r="W55" s="2">
-        <v>1394.94</v>
-      </c>
-      <c r="X55" s="2">
-        <v>1085.73</v>
-      </c>
-      <c r="Y55" s="2">
         <v>1.02</v>
       </c>
-      <c r="Z55" s="2">
-        <v>0.78</v>
+      <c r="P55">
+        <v>0.13</v>
+      </c>
+      <c r="Q55">
+        <f>SUM(H55,I55,J55,K55,L55,M55,P55)</f>
+        <v>1525.16</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>4.6113194681213772</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>1.0477589236539118</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="2"/>
+        <v>8.3269952005035536E-2</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>2.7190589839754518</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="2"/>
+        <v>1.3113378268509533E-3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="4"/>
+        <v>91.528757638542828</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="3"/>
+        <v>91.461879409373438</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="3"/>
+        <v>6.6878229169398618E-2</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="3"/>
+        <v>8.523695874531197E-3</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
@@ -5101,61 +5630,71 @@
         <v>51.073</v>
       </c>
       <c r="H56" s="2">
-        <v>0.45</v>
+        <v>5.47</v>
       </c>
       <c r="I56" s="2">
-        <v>5.0199999999999996</v>
+        <v>1.53</v>
       </c>
       <c r="J56" s="2">
-        <v>5.47</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2">
-        <v>107</v>
+        <v>0.17</v>
       </c>
       <c r="L56" s="2">
-        <v>3.62</v>
+        <v>16.2</v>
       </c>
       <c r="M56" s="2">
-        <v>71</v>
+        <v>3.15</v>
       </c>
       <c r="N56" s="2">
-        <v>1.53</v>
+        <v>2.78</v>
       </c>
       <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="R56" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="S56" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="T56" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="U56" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="V56" s="2">
-        <v>2.31</v>
-      </c>
-      <c r="W56" s="2">
-        <v>2.78</v>
-      </c>
-      <c r="X56" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="Y56" s="2">
         <v>0.37</v>
       </c>
-      <c r="Z56" s="2">
-        <v>0.28999999999999998</v>
+      <c r="P56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>26.589999999999996</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>20.571643474990601</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>5.7540428732606248</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="2"/>
+        <v>0.63933809702895839</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="2"/>
+        <v>60.925159834524266</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="4"/>
+        <v>11.846558856713052</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="3"/>
+        <v>10.4550582925912</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="3"/>
+        <v>1.3915005641218505</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="3"/>
+        <v>0.26325686348251226</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
@@ -5181,61 +5720,71 @@
         <v>832.23299999999995</v>
       </c>
       <c r="H57" s="2">
-        <v>46.61</v>
+        <v>130.02000000000001</v>
       </c>
       <c r="I57" s="2">
-        <v>83.41</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="J57" s="2">
-        <v>130.02000000000001</v>
+        <v>10.85</v>
       </c>
       <c r="K57" s="2">
-        <v>156</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L57" s="2">
-        <v>75.92</v>
+        <v>13.04</v>
       </c>
       <c r="M57" s="2">
-        <v>91</v>
+        <v>85.11</v>
       </c>
       <c r="N57" s="2">
-        <v>10.210000000000001</v>
+        <v>79.97</v>
       </c>
       <c r="O57" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="P57" s="2">
-        <v>10.85</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R57" s="2">
-        <v>13.04</v>
-      </c>
-      <c r="S57" s="2">
-        <v>59.9</v>
-      </c>
-      <c r="T57" s="2">
-        <v>25.21</v>
-      </c>
-      <c r="U57" s="2">
-        <v>85.11</v>
-      </c>
-      <c r="V57" s="2">
-        <v>70.08</v>
-      </c>
-      <c r="W57" s="2">
-        <v>79.97</v>
-      </c>
-      <c r="X57" s="2">
-        <v>66.16</v>
-      </c>
-      <c r="Y57" s="2">
         <v>5.14</v>
       </c>
-      <c r="Z57" s="2">
-        <v>3.92</v>
+      <c r="P57">
+        <v>61.85</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>311.22000000000003</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>41.777520724889143</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>3.280637491163807</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="2"/>
+        <v>3.4862798020692756</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>4.4984255510571301E-2</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>4.1899620846989265</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="4"/>
+        <v>27.347214189319452</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="3"/>
+        <v>25.695649379859901</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="3"/>
+        <v>1.6515648094595461</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="3"/>
+        <v>19.873401452348819</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
@@ -5261,61 +5810,71 @@
         <v>191.99799999999999</v>
       </c>
       <c r="H58" s="2">
-        <v>17.88</v>
+        <v>26.91</v>
       </c>
       <c r="I58" s="2">
-        <v>9.0299999999999994</v>
+        <v>0.79</v>
       </c>
       <c r="J58" s="2">
-        <v>26.91</v>
+        <v>0.88</v>
       </c>
       <c r="K58" s="2">
-        <v>140</v>
+        <v>0.48</v>
       </c>
       <c r="L58" s="2">
-        <v>15.21</v>
+        <v>0</v>
       </c>
       <c r="M58" s="2">
-        <v>79</v>
+        <v>571.67999999999995</v>
       </c>
       <c r="N58" s="2">
-        <v>0.79</v>
+        <v>571.24</v>
       </c>
       <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2">
-        <v>187.8</v>
-      </c>
-      <c r="T58" s="2">
-        <v>383.88</v>
-      </c>
-      <c r="U58" s="2">
-        <v>571.67999999999995</v>
-      </c>
-      <c r="V58" s="2">
-        <v>431.76</v>
-      </c>
-      <c r="W58" s="2">
-        <v>571.24</v>
-      </c>
-      <c r="X58" s="2">
-        <v>431.42</v>
-      </c>
-      <c r="Y58" s="2">
         <v>0.44</v>
       </c>
-      <c r="Z58" s="2">
-        <v>0.34</v>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>600.7399999999999</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="2"/>
+        <v>4.4794753137796723</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="2"/>
+        <v>0.13150447781070015</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="2"/>
+        <v>0.14648600059926092</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="2"/>
+        <v>7.990145487232414E-2</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="4"/>
+        <v>95.162632752938052</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="3"/>
+        <v>95.089389752638425</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="3"/>
+        <v>7.3243000299630462E-2</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
@@ -5341,13 +5900,50 @@
         <v>67.117999999999995</v>
       </c>
       <c r="H59" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="J59" s="2">
         <v>8.9499999999999993</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/CA_wateruse_2015_v2.xlsx
+++ b/data/CA_wateruse_2015_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayley\Documents\UW_GISPP\GEOG_575\Lab Activities\unit-3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF08026-7ACC-4397-BCDC-66FEB11F0B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B63ACFA-46F4-422D-81A1-8FB28DF7CD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3B5BB29-DA7B-4A7B-A6F9-87275E83F509}"/>
   </bookViews>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F558E020-3549-454A-9427-54DDB01442CF}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,35 +805,35 @@
         <v>91.846287829305453</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:Z17" si="0">(I2/$Q2)*100</f>
+        <f>(I2/$Q2)*100</f>
         <v>0.48987589810581311</v>
       </c>
       <c r="T2">
-        <f t="shared" si="0"/>
+        <f>(J2/$Q2)*100</f>
         <v>2.340518179838885</v>
       </c>
       <c r="U2">
-        <f t="shared" si="0"/>
+        <f>(K2/$Q2)*100</f>
         <v>0.14696276943174394</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
+        <f>(L2/$Q2)*100</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f t="shared" si="0"/>
+        <f>(M2/$Q2)*100</f>
         <v>5.1763553233180915</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
+        <f>(N2/$Q2)*100</f>
         <v>4.1585020683649025</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
+        <f>(O2/$Q2)*100</f>
         <v>1.0178532549531896</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="0"/>
+        <f>(P2/$Q2)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -887,43 +887,43 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q59" si="1">SUM(H3,I3,J3,K3,L3,M3,P3)</f>
+        <f>SUM(H3,I3,J3,K3,L3,M3,P3)</f>
         <v>9.8099999999999987</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:W59" si="2">(H3/$Q3)*100</f>
+        <f>(H3/$Q3)*100</f>
         <v>1.0193679918450562</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
+        <f>(I3/$Q3)*100</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
+        <f>(J3/$Q3)*100</f>
         <v>0.20387359836901123</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
+        <f>(K3/$Q3)*100</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
+        <f>(L3/$Q3)*100</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
+        <f>(M3/$Q3)*100</f>
         <v>98.776758409785941</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
+        <f>(N3/$Q3)*100</f>
         <v>98.776758409785941</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="0"/>
+        <f>(O3/$Q3)*100</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="0"/>
+        <f>(P3/$Q3)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -977,43 +977,43 @@
         <v>0.27</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f>SUM(H4,I4,J4,K4,L4,M4,P4)</f>
         <v>39.690000000000005</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f>(H4/$Q4)*100</f>
         <v>21.768707482993197</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f>(I4/$Q4)*100</f>
         <v>1.0330057949105567</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f>(J4/$Q4)*100</f>
         <v>4.913076341647769</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
+        <f>(K4/$Q4)*100</f>
         <v>0.57949105568153181</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f>(L4/$Q4)*100</f>
         <v>18.74527588813303</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
+        <f>(M4/$Q4)*100</f>
         <v>52.28017132779037</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
+        <f>(N4/$Q4)*100</f>
         <v>51.549508692365833</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
+        <f>(O4/$Q4)*100</f>
         <v>0.73066263542454002</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
+        <f>(P4/$Q4)*100</f>
         <v>0.68027210884353739</v>
       </c>
     </row>
@@ -1067,43 +1067,43 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f>SUM(H5,I5,J5,K5,L5,M5,P5)</f>
         <v>808.53</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f>(H5/$Q5)*100</f>
         <v>3.5632567746403971</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f>(I5/$Q5)*100</f>
         <v>0.49719861971726464</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f>(J5/$Q5)*100</f>
         <v>0.18057462308139463</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
+        <f>(K5/$Q5)*100</f>
         <v>3.5867562118907154E-2</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
+        <f>(L5/$Q5)*100</f>
         <v>2.6307001595488106</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
+        <f>(M5/$Q5)*100</f>
         <v>93.092402260893223</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
+        <f>(N5/$Q5)*100</f>
         <v>93.033035261524006</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
+        <f>(O5/$Q5)*100</f>
         <v>5.9366999369225633E-2</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
+        <f>(P5/$Q5)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1157,43 +1157,43 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f>SUM(H6,I6,J6,K6,L6,M6,P6)</f>
         <v>15.83</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f>(H6/$Q6)*100</f>
         <v>41.629816803537587</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f>(I6/$Q6)*100</f>
         <v>1.0739102969046117</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
+        <f>(J6/$Q6)*100</f>
         <v>0.12634238787113075</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
+        <f>(K6/$Q6)*100</f>
         <v>1.5792798483891344</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
+        <f>(L6/$Q6)*100</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
+        <f>(M6/$Q6)*100</f>
         <v>55.590650663297538</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
+        <f>(N6/$Q6)*100</f>
         <v>51.674036639292474</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
+        <f>(O6/$Q6)*100</f>
         <v>3.9166140240050535</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
+        <f>(P6/$Q6)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1247,43 +1247,43 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f>SUM(H7,I7,J7,K7,L7,M7,P7)</f>
         <v>699.06999999999994</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f>(H7/$Q7)*100</f>
         <v>0.35189609052026266</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f>(I7/$Q7)*100</f>
         <v>0.12015964066545554</v>
       </c>
       <c r="T7">
-        <f t="shared" si="0"/>
+        <f>(J7/$Q7)*100</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="0"/>
+        <f>(K7/$Q7)*100</f>
         <v>3.4331325904415864E-2</v>
       </c>
       <c r="V7">
-        <f t="shared" si="0"/>
+        <f>(L7/$Q7)*100</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f t="shared" si="0"/>
+        <f>(M7/$Q7)*100</f>
         <v>99.453559729354723</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
+        <f>(N7/$Q7)*100</f>
         <v>99.44354642596592</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
+        <f>(O7/$Q7)*100</f>
         <v>1.0013303388787963E-2</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
+        <f>(P7/$Q7)*100</f>
         <v>4.0053213555151852E-2</v>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>18.510000000000002</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f>SUM(H8,I8,J8,K8,L8,M8,P8)</f>
         <v>250.12</v>
       </c>
       <c r="R8">
@@ -1345,35 +1345,35 @@
         <v>55.961138653446341</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f>(I8/$Q8)*100</f>
         <v>1.3353590276667198</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
+        <f>(J8/$Q8)*100</f>
         <v>0.32384455461378542</v>
       </c>
       <c r="U8">
-        <f t="shared" si="0"/>
+        <f>(K8/$Q8)*100</f>
         <v>0.15992323684631377</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
+        <f>(L8/$Q8)*100</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" si="0"/>
+        <f>(M8/$Q8)*100</f>
         <v>34.819286742363666</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
+        <f>(N8/$Q8)*100</f>
         <v>33.9437070206301</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
+        <f>(O8/$Q8)*100</f>
         <v>0.8755797217335678</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
+        <f>(P8/$Q8)*100</f>
         <v>7.4004477850631707</v>
       </c>
     </row>
@@ -1427,43 +1427,43 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f>SUM(H9,I9,J9,K9,L9,M9,P9)</f>
         <v>19.39</v>
       </c>
       <c r="R9">
-        <f t="shared" si="2"/>
+        <f>(H9/$Q9)*100</f>
         <v>12.377514182568333</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f>(I9/$Q9)*100</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f t="shared" si="0"/>
+        <f>(J9/$Q9)*100</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="0"/>
+        <f>(K9/$Q9)*100</f>
         <v>2.939659618359979</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
+        <f>(L9/$Q9)*100</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="0"/>
+        <f>(M9/$Q9)*100</f>
         <v>84.682826199071698</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
+        <f>(N9/$Q9)*100</f>
         <v>84.321815368746783</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
+        <f>(O9/$Q9)*100</f>
         <v>0.36101083032490977</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
+        <f>(P9/$Q9)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1517,43 +1517,43 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f>SUM(H10,I10,J10,K10,L10,M10,P10)</f>
         <v>55.67</v>
       </c>
       <c r="R10">
-        <f t="shared" si="2"/>
+        <f>(H10/$Q10)*100</f>
         <v>49.937129513202798</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f>(I10/$Q10)*100</f>
         <v>1.5987066642716004</v>
       </c>
       <c r="T10">
-        <f t="shared" si="0"/>
+        <f>(J10/$Q10)*100</f>
         <v>3.5925992455541587E-2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="0"/>
+        <f>(K10/$Q10)*100</f>
         <v>0.32333393209987421</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f>(L10/$Q10)*100</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="0"/>
+        <f>(M10/$Q10)*100</f>
         <v>48.104903897970182</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f>(N10/$Q10)*100</f>
         <v>46.057122328004311</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
+        <f>(O10/$Q10)*100</f>
         <v>2.0477815699658701</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f>(P10/$Q10)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1607,43 +1607,43 @@
         <v>0.02</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f>SUM(H11,I11,J11,K11,L11,M11,P11)</f>
         <v>1813.6000000000001</v>
       </c>
       <c r="R11">
-        <f t="shared" si="2"/>
+        <f>(H11/$Q11)*100</f>
         <v>8.6612262902514345</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
+        <f>(I11/$Q11)*100</f>
         <v>0.57951036612262896</v>
       </c>
       <c r="T11">
-        <f t="shared" si="0"/>
+        <f>(J11/$Q11)*100</f>
         <v>0.43449492721658572</v>
       </c>
       <c r="U11">
-        <f t="shared" si="0"/>
+        <f>(K11/$Q11)*100</f>
         <v>0.73003970004411112</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
+        <f>(L11/$Q11)*100</f>
         <v>0.45434494927216584</v>
       </c>
       <c r="W11">
-        <f t="shared" si="0"/>
+        <f>(M11/$Q11)*100</f>
         <v>89.139280988089979</v>
       </c>
       <c r="X11">
-        <f t="shared" si="0"/>
+        <f>(N11/$Q11)*100</f>
         <v>89.047198941332155</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="0"/>
+        <f>(O11/$Q11)*100</f>
         <v>9.2082046757829716E-2</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="0"/>
+        <f>(P11/$Q11)*100</f>
         <v>1.102779003087781E-3</v>
       </c>
     </row>
@@ -1697,43 +1697,43 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="1"/>
+        <f>SUM(H12,I12,J12,K12,L12,M12,P12)</f>
         <v>665.73</v>
       </c>
       <c r="R12">
-        <f t="shared" si="2"/>
+        <f>(H12/$Q12)*100</f>
         <v>0.38303816862692081</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
+        <f>(I12/$Q12)*100</f>
         <v>4.0556982560497501E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="0"/>
+        <f>(J12/$Q12)*100</f>
         <v>4.2059093025701114E-2</v>
       </c>
       <c r="U12">
-        <f t="shared" si="0"/>
+        <f>(K12/$Q12)*100</f>
         <v>0.29741787211031501</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
+        <f>(L12/$Q12)*100</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="0"/>
+        <f>(M12/$Q12)*100</f>
         <v>99.236927883676557</v>
       </c>
       <c r="X12">
-        <f t="shared" si="0"/>
+        <f>(N12/$Q12)*100</f>
         <v>99.232421552280954</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="0"/>
+        <f>(O12/$Q12)*100</f>
         <v>4.5063313956108329E-3</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="0"/>
+        <f>(P12/$Q12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1787,43 +1787,43 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="1"/>
+        <f>SUM(H13,I13,J13,K13,L13,M13,P13)</f>
         <v>74.009999999999991</v>
       </c>
       <c r="R13">
-        <f t="shared" si="2"/>
+        <f>(H13/$Q13)*100</f>
         <v>15.52492906364005</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
+        <f>(I13/$Q13)*100</f>
         <v>0.64856100526955829</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
+        <f>(J13/$Q13)*100</f>
         <v>0.48642075395216866</v>
       </c>
       <c r="U13">
-        <f t="shared" si="0"/>
+        <f>(K13/$Q13)*100</f>
         <v>2.3104985812728009</v>
       </c>
       <c r="V13">
-        <f t="shared" si="0"/>
+        <f>(L13/$Q13)*100</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="0"/>
+        <f>(M13/$Q13)*100</f>
         <v>81.029590595865429</v>
       </c>
       <c r="X13">
-        <f t="shared" si="0"/>
+        <f>(N13/$Q13)*100</f>
         <v>80.50263477908392</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
+        <f>(O13/$Q13)*100</f>
         <v>0.52695581678151604</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="0"/>
+        <f>(P13/$Q13)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1877,43 +1877,43 @@
         <v>14.57</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
+        <f>SUM(H14,I14,J14,K14,L14,M14,P14)</f>
         <v>1916.6299999999999</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f>(H14/$Q14)*100</f>
         <v>1.27672007638407</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f>(I14/$Q14)*100</f>
         <v>6.2609893406656472E-2</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f>(J14/$Q14)*100</f>
         <v>0.48574842301330989</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f>(K14/$Q14)*100</f>
         <v>0.30574497946917251</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f>(L14/$Q14)*100</f>
         <v>0.56766303355368541</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f>(M14/$Q14)*100</f>
         <v>96.541325138393958</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f>(N14/$Q14)*100</f>
         <v>96.517324679254742</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
+        <f>(O14/$Q14)*100</f>
         <v>2.4000459139218319E-2</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
+        <f>(P14/$Q14)*100</f>
         <v>0.76018845577915406</v>
       </c>
     </row>
@@ -1967,43 +1967,43 @@
         <v>5.68</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f>SUM(H15,I15,J15,K15,L15,M15,P15)</f>
         <v>61.95</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
+        <f>(H15/$Q15)*100</f>
         <v>3.9063761097659397</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f>(I15/$Q15)*100</f>
         <v>0.14527845036319612</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f>(J15/$Q15)*100</f>
         <v>1.3397901533494752</v>
       </c>
       <c r="U15">
-        <f t="shared" si="0"/>
+        <f>(K15/$Q15)*100</f>
         <v>0.37126715092816787</v>
       </c>
       <c r="V15">
-        <f t="shared" si="0"/>
+        <f>(L15/$Q15)*100</f>
         <v>56.820016142050044</v>
       </c>
       <c r="W15">
-        <f t="shared" si="0"/>
+        <f>(M15/$Q15)*100</f>
         <v>28.248587570621471</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
+        <f>(N15/$Q15)*100</f>
         <v>27.71589991928975</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
+        <f>(O15/$Q15)*100</f>
         <v>0.53268765133171914</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="0"/>
+        <f>(P15/$Q15)*100</f>
         <v>9.1686844229217108</v>
       </c>
     </row>
@@ -2057,43 +2057,43 @@
         <v>1.03</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="1"/>
+        <f>SUM(H16,I16,J16,K16,L16,M16,P16)</f>
         <v>1915.24</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
+        <f>(H16/$Q16)*100</f>
         <v>8.8171717382677883</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
+        <f>(I16/$Q16)*100</f>
         <v>0.12844343267684469</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f>(J16/$Q16)*100</f>
         <v>5.6656084877091129</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f>(K16/$Q16)*100</f>
         <v>0.63542950230780471</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f>(L16/$Q16)*100</f>
         <v>0.23600175434932433</v>
       </c>
       <c r="W16">
-        <f t="shared" si="0"/>
+        <f>(M16/$Q16)*100</f>
         <v>84.463565923852883</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
+        <f>(N16/$Q16)*100</f>
         <v>84.319980785697879</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
+        <f>(O16/$Q16)*100</f>
         <v>0.14358513815500928</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="0"/>
+        <f>(P16/$Q16)*100</f>
         <v>5.3779160836239848E-2</v>
       </c>
     </row>
@@ -2147,43 +2147,43 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="1"/>
+        <f>SUM(H17,I17,J17,K17,L17,M17,P17)</f>
         <v>684.43999999999994</v>
       </c>
       <c r="R17">
-        <f t="shared" si="2"/>
+        <f>(H17/$Q17)*100</f>
         <v>4.2472678394015553</v>
       </c>
       <c r="S17">
-        <f t="shared" si="0"/>
+        <f>(I17/$Q17)*100</f>
         <v>0.4500029220968968</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
+        <f>(J17/$Q17)*100</f>
         <v>0</v>
       </c>
       <c r="U17">
-        <f t="shared" si="0"/>
+        <f>(K17/$Q17)*100</f>
         <v>2.1725790427210567</v>
       </c>
       <c r="V17">
-        <f t="shared" si="0"/>
+        <f>(L17/$Q17)*100</f>
         <v>0</v>
       </c>
       <c r="W17">
-        <f t="shared" si="0"/>
+        <f>(M17/$Q17)*100</f>
         <v>93.130150195780487</v>
       </c>
       <c r="X17">
-        <f t="shared" si="0"/>
+        <f>(N17/$Q17)*100</f>
         <v>93.087779790777873</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
+        <f>(O17/$Q17)*100</f>
         <v>4.2370405002629889E-2</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="0"/>
+        <f>(P17/$Q17)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2237,43 +2237,43 @@
         <v>4.2</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f>SUM(H18,I18,J18,K18,L18,M18,P18)</f>
         <v>61.17</v>
       </c>
       <c r="R18">
-        <f t="shared" si="2"/>
+        <f>(H18/$Q18)*100</f>
         <v>4.7899297041033186</v>
       </c>
       <c r="S18">
-        <f t="shared" si="2"/>
+        <f>(I18/$Q18)*100</f>
         <v>1.5693967631191759</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
+        <f>(J18/$Q18)*100</f>
         <v>0.35965342488147783</v>
       </c>
       <c r="U18">
-        <f t="shared" si="2"/>
+        <f>(K18/$Q18)*100</f>
         <v>0.11443518064410658</v>
       </c>
       <c r="V18">
-        <f t="shared" si="2"/>
+        <f>(L18/$Q18)*100</f>
         <v>0</v>
       </c>
       <c r="W18">
-        <f t="shared" si="2"/>
+        <f>(M18/$Q18)*100</f>
         <v>86.300474088605512</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="X18:Z59" si="3">(N18/$Q18)*100</f>
+        <f>(N18/$Q18)*100</f>
         <v>85.842733366029094</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="3"/>
+        <f>(O18/$Q18)*100</f>
         <v>0.45774072257642634</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="3"/>
+        <f>(P18/$Q18)*100</f>
         <v>6.8661108386463958</v>
       </c>
     </row>
@@ -2327,43 +2327,43 @@
         <v>0.38</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f>SUM(H19,I19,J19,K19,L19,M19,P19)</f>
         <v>111.14</v>
       </c>
       <c r="R19">
-        <f t="shared" si="2"/>
+        <f>(H19/$Q19)*100</f>
         <v>3.419111031131906</v>
       </c>
       <c r="S19">
-        <f t="shared" si="2"/>
+        <f>(I19/$Q19)*100</f>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f>(J19/$Q19)*100</f>
         <v>0.30592046068022316</v>
       </c>
       <c r="U19">
-        <f t="shared" si="2"/>
+        <f>(K19/$Q19)*100</f>
         <v>0.58484793953572067</v>
       </c>
       <c r="V19">
-        <f t="shared" si="2"/>
+        <f>(L19/$Q19)*100</f>
         <v>15.556955191650172</v>
       </c>
       <c r="W19">
-        <f t="shared" si="2"/>
+        <f>(M19/$Q19)*100</f>
         <v>79.791254273888796</v>
       </c>
       <c r="X19">
-        <f t="shared" si="3"/>
+        <f>(N19/$Q19)*100</f>
         <v>79.665287025373416</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="3"/>
+        <f>(O19/$Q19)*100</f>
         <v>0.12596724851538602</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="3"/>
+        <f>(P19/$Q19)*100</f>
         <v>0.34191110311319062</v>
       </c>
     </row>
@@ -2417,43 +2417,43 @@
         <v>436</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="1"/>
+        <f>SUM(H20,I20,J20,K20,L20,M20,P20)</f>
         <v>1938.1</v>
       </c>
       <c r="R20">
-        <f t="shared" si="2"/>
+        <f>(H20/$Q20)*100</f>
         <v>64.828440224962605</v>
       </c>
       <c r="S20">
-        <f t="shared" si="2"/>
+        <f>(I20/$Q20)*100</f>
         <v>5.3284144265001805</v>
       </c>
       <c r="T20">
-        <f t="shared" si="2"/>
+        <f>(J20/$Q20)*100</f>
         <v>5.5404777875238631</v>
       </c>
       <c r="U20">
-        <f t="shared" si="2"/>
+        <f>(K20/$Q20)*100</f>
         <v>1.9090862184613797E-2</v>
       </c>
       <c r="V20">
-        <f t="shared" si="2"/>
+        <f>(L20/$Q20)*100</f>
         <v>2.0638769929312217E-3</v>
       </c>
       <c r="W20">
-        <f t="shared" si="2"/>
+        <f>(M20/$Q20)*100</f>
         <v>1.7852535988855067</v>
       </c>
       <c r="X20">
-        <f t="shared" si="3"/>
+        <f>(N20/$Q20)*100</f>
         <v>0.90965378463443569</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="3"/>
+        <f>(O20/$Q20)*100</f>
         <v>0.87559981425107059</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="3"/>
+        <f>(P20/$Q20)*100</f>
         <v>22.496259222950314</v>
       </c>
     </row>
@@ -2507,43 +2507,43 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="1"/>
+        <f>SUM(H21,I21,J21,K21,L21,M21,P21)</f>
         <v>798.81999999999994</v>
       </c>
       <c r="R21">
-        <f t="shared" si="2"/>
+        <f>(H21/$Q21)*100</f>
         <v>1.9566360381562806</v>
       </c>
       <c r="S21">
-        <f t="shared" si="2"/>
+        <f>(I21/$Q21)*100</f>
         <v>0.57209383841165729</v>
       </c>
       <c r="T21">
-        <f t="shared" si="2"/>
+        <f>(J21/$Q21)*100</f>
         <v>1.2518464735484841E-3</v>
       </c>
       <c r="U21">
-        <f t="shared" si="2"/>
+        <f>(K21/$Q21)*100</f>
         <v>0.77364112065296309</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f>(L21/$Q21)*100</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="2"/>
+        <f>(M21/$Q21)*100</f>
         <v>96.696377156305559</v>
       </c>
       <c r="X21">
-        <f t="shared" si="3"/>
+        <f>(N21/$Q21)*100</f>
         <v>96.589970206053948</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="3"/>
+        <f>(O21/$Q21)*100</f>
         <v>0.10640695025162115</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="3"/>
+        <f>(P21/$Q21)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2597,43 +2597,43 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="1"/>
+        <f>SUM(H22,I22,J22,K22,L22,M22,P22)</f>
         <v>70.63000000000001</v>
       </c>
       <c r="R22">
-        <f t="shared" si="2"/>
+        <f>(H22/$Q22)*100</f>
         <v>39.912218603992635</v>
       </c>
       <c r="S22">
-        <f t="shared" si="2"/>
+        <f>(I22/$Q22)*100</f>
         <v>0.28316579357213645</v>
       </c>
       <c r="T22">
-        <f t="shared" si="2"/>
+        <f>(J22/$Q22)*100</f>
         <v>4.2474869035820463E-2</v>
       </c>
       <c r="U22">
-        <f t="shared" si="2"/>
+        <f>(K22/$Q22)*100</f>
         <v>1.6848364717542117</v>
       </c>
       <c r="V22">
-        <f t="shared" si="2"/>
+        <f>(L22/$Q22)*100</f>
         <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" si="2"/>
+        <f>(M22/$Q22)*100</f>
         <v>58.077304261645189</v>
       </c>
       <c r="X22">
-        <f t="shared" si="3"/>
+        <f>(N22/$Q22)*100</f>
         <v>57.341073198357627</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="3"/>
+        <f>(O22/$Q22)*100</f>
         <v>0.73623106328755472</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="3"/>
+        <f>(P22/$Q22)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2687,43 +2687,43 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="1"/>
+        <f>SUM(H23,I23,J23,K23,L23,M23,P23)</f>
         <v>18.57</v>
       </c>
       <c r="R23">
-        <f t="shared" si="2"/>
+        <f>(H23/$Q23)*100</f>
         <v>3.6618201400107702</v>
       </c>
       <c r="S23">
-        <f t="shared" si="2"/>
+        <f>(I23/$Q23)*100</f>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="2"/>
+        <f>(J23/$Q23)*100</f>
         <v>0.26925148088314488</v>
       </c>
       <c r="U23">
-        <f t="shared" si="2"/>
+        <f>(K23/$Q23)*100</f>
         <v>2.1001615508885298</v>
       </c>
       <c r="V23">
-        <f t="shared" si="2"/>
+        <f>(L23/$Q23)*100</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" si="2"/>
+        <f>(M23/$Q23)*100</f>
         <v>93.968766828217554</v>
       </c>
       <c r="X23">
-        <f t="shared" si="3"/>
+        <f>(N23/$Q23)*100</f>
         <v>93.753365643511046</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="3"/>
+        <f>(O23/$Q23)*100</f>
         <v>0.2154011847065159</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="3"/>
+        <f>(P23/$Q23)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2777,43 +2777,43 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="1"/>
+        <f>SUM(H24,I24,J24,K24,L24,M24,P24)</f>
         <v>81.41</v>
       </c>
       <c r="R24">
-        <f t="shared" si="2"/>
+        <f>(H24/$Q24)*100</f>
         <v>10.846333374278345</v>
       </c>
       <c r="S24">
-        <f t="shared" si="2"/>
+        <f>(I24/$Q24)*100</f>
         <v>4.1149735904680016</v>
       </c>
       <c r="T24">
-        <f t="shared" si="2"/>
+        <f>(J24/$Q24)*100</f>
         <v>0.20881955533718222</v>
       </c>
       <c r="U24">
-        <f t="shared" si="2"/>
+        <f>(K24/$Q24)*100</f>
         <v>0.42992261392949271</v>
       </c>
       <c r="V24">
-        <f t="shared" si="2"/>
+        <f>(L24/$Q24)*100</f>
         <v>1.2283503255128362E-2</v>
       </c>
       <c r="W24">
-        <f t="shared" si="2"/>
+        <f>(M24/$Q24)*100</f>
         <v>84.387667362731861</v>
       </c>
       <c r="X24">
-        <f t="shared" si="3"/>
+        <f>(N24/$Q24)*100</f>
         <v>84.215698317160061</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="3"/>
+        <f>(O24/$Q24)*100</f>
         <v>0.1719690455717971</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="3"/>
+        <f>(P24/$Q24)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2871,39 +2871,39 @@
         <v>1086.56</v>
       </c>
       <c r="R25">
-        <f t="shared" si="2"/>
+        <f>(H25/$Q25)*100</f>
         <v>4.6173243999410989</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f>(I25/$Q25)*100</f>
         <v>0.51814902076277425</v>
       </c>
       <c r="T25">
-        <f t="shared" si="2"/>
+        <f>(J25/$Q25)*100</f>
         <v>6.8104844647327342E-2</v>
       </c>
       <c r="U25">
-        <f t="shared" si="2"/>
+        <f>(K25/$Q25)*100</f>
         <v>2.2879546458548079</v>
       </c>
       <c r="V25">
-        <f t="shared" si="2"/>
+        <f>(L25/$Q25)*100</f>
         <v>3.1595125901929024</v>
       </c>
       <c r="W25">
-        <f t="shared" si="2"/>
+        <f>(M25/$Q25)*100</f>
         <v>89.329627448093078</v>
       </c>
       <c r="X25">
-        <f t="shared" si="3"/>
+        <f>(N25/$Q25)*100</f>
         <v>89.305698718892657</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="3"/>
+        <f>(O25/$Q25)*100</f>
         <v>2.3928729200412311E-2</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="3"/>
+        <f>(P25/$Q25)*100</f>
         <v>1.9327050508025329E-2</v>
       </c>
     </row>
@@ -2957,43 +2957,43 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f>SUM(H26,I26,J26,K26,L26,M26,P26)</f>
         <v>173.26000000000002</v>
       </c>
       <c r="R26">
-        <f t="shared" si="2"/>
+        <f>(H26/$Q26)*100</f>
         <v>0.34630035784370305</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f>(I26/$Q26)*100</f>
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="2"/>
+        <f>(J26/$Q26)*100</f>
         <v>4.6173381045827078E-2</v>
       </c>
       <c r="U26">
-        <f t="shared" si="2"/>
+        <f>(K26/$Q26)*100</f>
         <v>0.47327715571972745</v>
       </c>
       <c r="V26">
-        <f t="shared" si="2"/>
+        <f>(L26/$Q26)*100</f>
         <v>0.15583516102966638</v>
       </c>
       <c r="W26">
-        <f t="shared" si="2"/>
+        <f>(M26/$Q26)*100</f>
         <v>98.978413944361066</v>
       </c>
       <c r="X26">
-        <f t="shared" si="3"/>
+        <f>(N26/$Q26)*100</f>
         <v>98.787948747547034</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="3"/>
+        <f>(O26/$Q26)*100</f>
         <v>0.1904651968140367</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="3"/>
+        <f>(P26/$Q26)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3047,43 +3047,43 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
+        <f>SUM(H27,I27,J27,K27,L27,M27,P27)</f>
         <v>70.8</v>
       </c>
       <c r="R27">
-        <f t="shared" si="2"/>
+        <f>(H27/$Q27)*100</f>
         <v>2.7966101694915255</v>
       </c>
       <c r="S27">
-        <f t="shared" si="2"/>
+        <f>(I27/$Q27)*100</f>
         <v>4.2372881355932202E-2</v>
       </c>
       <c r="T27">
-        <f t="shared" si="2"/>
+        <f>(J27/$Q27)*100</f>
         <v>2.8248587570621469E-2</v>
       </c>
       <c r="U27">
-        <f t="shared" si="2"/>
+        <f>(K27/$Q27)*100</f>
         <v>9.887005649717516E-2</v>
       </c>
       <c r="V27">
-        <f t="shared" si="2"/>
+        <f>(L27/$Q27)*100</f>
         <v>14.364406779661017</v>
       </c>
       <c r="W27">
-        <f t="shared" si="2"/>
+        <f>(M27/$Q27)*100</f>
         <v>82.669491525423737</v>
       </c>
       <c r="X27">
-        <f t="shared" si="3"/>
+        <f>(N27/$Q27)*100</f>
         <v>82.401129943502838</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="3"/>
+        <f>(O27/$Q27)*100</f>
         <v>0.26836158192090398</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="3"/>
+        <f>(P27/$Q27)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3137,43 +3137,43 @@
         <v>160.66</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="1"/>
+        <f>SUM(H28,I28,J28,K28,L28,M28,P28)</f>
         <v>377.49</v>
       </c>
       <c r="R28">
-        <f t="shared" si="2"/>
+        <f>(H28/$Q28)*100</f>
         <v>10.127420593923016</v>
       </c>
       <c r="S28">
-        <f t="shared" si="2"/>
+        <f>(I28/$Q28)*100</f>
         <v>0.57220058809504892</v>
       </c>
       <c r="T28">
-        <f t="shared" si="2"/>
+        <f>(J28/$Q28)*100</f>
         <v>1.7510397626427192</v>
       </c>
       <c r="U28">
-        <f t="shared" si="2"/>
+        <f>(K28/$Q28)*100</f>
         <v>0.25696044928342471</v>
       </c>
       <c r="V28">
-        <f t="shared" si="2"/>
+        <f>(L28/$Q28)*100</f>
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="2"/>
+        <f>(M28/$Q28)*100</f>
         <v>44.732310789689791</v>
       </c>
       <c r="X28">
-        <f t="shared" si="3"/>
+        <f>(N28/$Q28)*100</f>
         <v>44.205144507139259</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="3"/>
+        <f>(O28/$Q28)*100</f>
         <v>0.52716628255053111</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="3"/>
+        <f>(P28/$Q28)*100</f>
         <v>42.560067816365994</v>
       </c>
     </row>
@@ -3227,43 +3227,43 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="1"/>
+        <f>SUM(H29,I29,J29,K29,L29,M29,P29)</f>
         <v>126.28</v>
       </c>
       <c r="R29">
-        <f t="shared" si="2"/>
+        <f>(H29/$Q29)*100</f>
         <v>12.100095026924294</v>
       </c>
       <c r="S29">
-        <f t="shared" si="2"/>
+        <f>(I29/$Q29)*100</f>
         <v>5.9787773202407353</v>
       </c>
       <c r="T29">
-        <f t="shared" si="2"/>
+        <f>(J29/$Q29)*100</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f t="shared" si="2"/>
+        <f>(K29/$Q29)*100</f>
         <v>0.12670256572695598</v>
       </c>
       <c r="V29">
-        <f t="shared" si="2"/>
+        <f>(L29/$Q29)*100</f>
         <v>0.46721571111815013</v>
       </c>
       <c r="W29">
-        <f t="shared" si="2"/>
+        <f>(M29/$Q29)*100</f>
         <v>81.327209375989867</v>
       </c>
       <c r="X29">
-        <f t="shared" si="3"/>
+        <f>(N29/$Q29)*100</f>
         <v>80.725372188786821</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="3"/>
+        <f>(O29/$Q29)*100</f>
         <v>0.60183718720304091</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="3"/>
+        <f>(P29/$Q29)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3317,43 +3317,43 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="1"/>
+        <f>SUM(H30,I30,J30,K30,L30,M30,P30)</f>
         <v>60.449999999999996</v>
       </c>
       <c r="R30">
-        <f t="shared" si="2"/>
+        <f>(H30/$Q30)*100</f>
         <v>18.9247311827957</v>
       </c>
       <c r="S30">
-        <f t="shared" si="2"/>
+        <f>(I30/$Q30)*100</f>
         <v>0.13234077750206785</v>
       </c>
       <c r="T30">
-        <f t="shared" si="2"/>
+        <f>(J30/$Q30)*100</f>
         <v>0.62861869313482222</v>
       </c>
       <c r="U30">
-        <f t="shared" si="2"/>
+        <f>(K30/$Q30)*100</f>
         <v>0.18196856906534328</v>
       </c>
       <c r="V30">
-        <f t="shared" si="2"/>
+        <f>(L30/$Q30)*100</f>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="2"/>
+        <f>(M30/$Q30)*100</f>
         <v>80.132340777502066</v>
       </c>
       <c r="X30">
-        <f t="shared" si="3"/>
+        <f>(N30/$Q30)*100</f>
         <v>78.081058726220036</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="3"/>
+        <f>(O30/$Q30)*100</f>
         <v>2.0512820512820511</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="3"/>
+        <f>(P30/$Q30)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3407,43 +3407,43 @@
         <v>62.36</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="1"/>
+        <f>SUM(H31,I31,J31,K31,L31,M31,P31)</f>
         <v>561.79</v>
       </c>
       <c r="R31">
-        <f t="shared" si="2"/>
+        <f>(H31/$Q31)*100</f>
         <v>81.443243916766065</v>
       </c>
       <c r="S31">
-        <f t="shared" si="2"/>
+        <f>(I31/$Q31)*100</f>
         <v>3.2236244860179073</v>
       </c>
       <c r="T31">
-        <f t="shared" si="2"/>
+        <f>(J31/$Q31)*100</f>
         <v>2.1111091333060399</v>
       </c>
       <c r="U31">
-        <f t="shared" si="2"/>
+        <f>(K31/$Q31)*100</f>
         <v>5.3400736930169631E-3</v>
       </c>
       <c r="V31">
-        <f t="shared" si="2"/>
+        <f>(L31/$Q31)*100</f>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="2"/>
+        <f>(M31/$Q31)*100</f>
         <v>2.1164492069990568</v>
       </c>
       <c r="X31">
-        <f t="shared" si="3"/>
+        <f>(N31/$Q31)*100</f>
         <v>0.452126239342103</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="3"/>
+        <f>(O31/$Q31)*100</f>
         <v>1.6643229676569535</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="3"/>
+        <f>(P31/$Q31)*100</f>
         <v>11.100233183217929</v>
       </c>
     </row>
@@ -3497,43 +3497,43 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="1"/>
+        <f>SUM(H32,I32,J32,K32,L32,M32,P32)</f>
         <v>190.07</v>
       </c>
       <c r="R32">
-        <f t="shared" si="2"/>
+        <f>(H32/$Q32)*100</f>
         <v>28.447414110590834</v>
       </c>
       <c r="S32">
-        <f t="shared" si="2"/>
+        <f>(I32/$Q32)*100</f>
         <v>1.0101541537328351</v>
       </c>
       <c r="T32">
-        <f t="shared" si="2"/>
+        <f>(J32/$Q32)*100</f>
         <v>0.15783658652075552</v>
       </c>
       <c r="U32">
-        <f t="shared" si="2"/>
+        <f>(K32/$Q32)*100</f>
         <v>0.15783658652075552</v>
       </c>
       <c r="V32">
-        <f t="shared" si="2"/>
+        <f>(L32/$Q32)*100</f>
         <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="2"/>
+        <f>(M32/$Q32)*100</f>
         <v>70.226758562634814</v>
       </c>
       <c r="X32">
-        <f t="shared" si="3"/>
+        <f>(N32/$Q32)*100</f>
         <v>68.532645867312041</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="3"/>
+        <f>(O32/$Q32)*100</f>
         <v>1.6941126953227761</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="3"/>
+        <f>(P32/$Q32)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3587,43 +3587,43 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="1"/>
+        <f>SUM(H33,I33,J33,K33,L33,M33,P33)</f>
         <v>106.86</v>
       </c>
       <c r="R33">
-        <f t="shared" si="2"/>
+        <f>(H33/$Q33)*100</f>
         <v>2.011978289350552</v>
       </c>
       <c r="S33">
-        <f t="shared" si="2"/>
+        <f>(I33/$Q33)*100</f>
         <v>1.2633352049410445</v>
       </c>
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f>(J33/$Q33)*100</f>
         <v>0.27138311809844656</v>
       </c>
       <c r="U33">
-        <f t="shared" si="2"/>
+        <f>(K33/$Q33)*100</f>
         <v>0.25266704098820886</v>
       </c>
       <c r="V33">
-        <f t="shared" si="2"/>
+        <f>(L33/$Q33)*100</f>
         <v>1.8716077110237695E-2</v>
       </c>
       <c r="W33">
-        <f t="shared" si="2"/>
+        <f>(M33/$Q33)*100</f>
         <v>96.181920269511508</v>
       </c>
       <c r="X33">
-        <f t="shared" si="3"/>
+        <f>(N33/$Q33)*100</f>
         <v>95.171252105558679</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="3"/>
+        <f>(O33/$Q33)*100</f>
         <v>1.0106681639528354</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="3"/>
+        <f>(P33/$Q33)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3677,43 +3677,43 @@
         <v>1.46</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="1"/>
+        <f>SUM(H34,I34,J34,K34,L34,M34,P34)</f>
         <v>1222.47</v>
       </c>
       <c r="R34">
-        <f t="shared" si="2"/>
+        <f>(H34/$Q34)*100</f>
         <v>36.052418464256789</v>
       </c>
       <c r="S34">
-        <f t="shared" si="2"/>
+        <f>(I34/$Q34)*100</f>
         <v>0.42782235964890752</v>
       </c>
       <c r="T34">
-        <f t="shared" si="2"/>
+        <f>(J34/$Q34)*100</f>
         <v>0.93581028573298319</v>
       </c>
       <c r="U34">
-        <f t="shared" si="2"/>
+        <f>(K34/$Q34)*100</f>
         <v>0.33947663337341616</v>
       </c>
       <c r="V34">
-        <f t="shared" si="2"/>
+        <f>(L34/$Q34)*100</f>
         <v>1.4454342437851238</v>
       </c>
       <c r="W34">
-        <f t="shared" si="2"/>
+        <f>(M34/$Q34)*100</f>
         <v>60.679607679534051</v>
       </c>
       <c r="X34">
-        <f t="shared" si="3"/>
+        <f>(N34/$Q34)*100</f>
         <v>58.280366798367247</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="3"/>
+        <f>(O34/$Q34)*100</f>
         <v>2.3992408811668176</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="3"/>
+        <f>(P34/$Q34)*100</f>
         <v>0.11943033366871988</v>
       </c>
     </row>
@@ -3767,43 +3767,43 @@
         <v>1.89</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="1"/>
+        <f>SUM(H35,I35,J35,K35,L35,M35,P35)</f>
         <v>867.58</v>
       </c>
       <c r="R35">
-        <f t="shared" si="2"/>
+        <f>(H35/$Q35)*100</f>
         <v>26.659212983240739</v>
       </c>
       <c r="S35">
-        <f t="shared" si="2"/>
+        <f>(I35/$Q35)*100</f>
         <v>1.9490997948316005</v>
       </c>
       <c r="T35">
-        <f t="shared" si="2"/>
+        <f>(J35/$Q35)*100</f>
         <v>0.25127365776066762</v>
       </c>
       <c r="U35">
-        <f t="shared" si="2"/>
+        <f>(K35/$Q35)*100</f>
         <v>0.20977892528642891</v>
       </c>
       <c r="V35">
-        <f t="shared" si="2"/>
+        <f>(L35/$Q35)*100</f>
         <v>19.759561077940941</v>
       </c>
       <c r="W35">
-        <f t="shared" si="2"/>
+        <f>(M35/$Q35)*100</f>
         <v>50.953226215449867</v>
       </c>
       <c r="X35">
-        <f t="shared" si="3"/>
+        <f>(N35/$Q35)*100</f>
         <v>50.758431499112476</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="3"/>
+        <f>(O35/$Q35)*100</f>
         <v>0.19479471633739828</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="3"/>
+        <f>(P35/$Q35)*100</f>
         <v>0.2178473454897531</v>
       </c>
     </row>
@@ -3857,43 +3857,43 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="1"/>
+        <f>SUM(H36,I36,J36,K36,L36,M36,P36)</f>
         <v>25.299999999999997</v>
       </c>
       <c r="R36">
-        <f t="shared" si="2"/>
+        <f>(H36/$Q36)*100</f>
         <v>20.711462450592887</v>
       </c>
       <c r="S36">
-        <f t="shared" si="2"/>
+        <f>(I36/$Q36)*100</f>
         <v>15.889328063241107</v>
       </c>
       <c r="T36">
-        <f t="shared" si="2"/>
+        <f>(J36/$Q36)*100</f>
         <v>1.1067193675889331</v>
       </c>
       <c r="U36">
-        <f t="shared" si="2"/>
+        <f>(K36/$Q36)*100</f>
         <v>2.5296442687747041</v>
       </c>
       <c r="V36">
-        <f t="shared" si="2"/>
+        <f>(L36/$Q36)*100</f>
         <v>0</v>
       </c>
       <c r="W36">
-        <f t="shared" si="2"/>
+        <f>(M36/$Q36)*100</f>
         <v>59.762845849802368</v>
       </c>
       <c r="X36">
-        <f t="shared" si="3"/>
+        <f>(N36/$Q36)*100</f>
         <v>58.735177865612656</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="3"/>
+        <f>(O36/$Q36)*100</f>
         <v>1.0276679841897234</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="3"/>
+        <f>(P36/$Q36)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3947,43 +3947,43 @@
         <v>13.04</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="1"/>
+        <f>SUM(H37,I37,J37,K37,L37,M37,P37)</f>
         <v>457.3</v>
       </c>
       <c r="R37">
-        <f t="shared" si="2"/>
+        <f>(H37/$Q37)*100</f>
         <v>73.84649026897003</v>
       </c>
       <c r="S37">
-        <f t="shared" si="2"/>
+        <f>(I37/$Q37)*100</f>
         <v>10.061228952547561</v>
       </c>
       <c r="T37">
-        <f t="shared" si="2"/>
+        <f>(J37/$Q37)*100</f>
         <v>2.1823748086595236</v>
       </c>
       <c r="U37">
-        <f t="shared" si="2"/>
+        <f>(K37/$Q37)*100</f>
         <v>1.5001093374152636</v>
       </c>
       <c r="V37">
-        <f t="shared" si="2"/>
+        <f>(L37/$Q37)*100</f>
         <v>2.2698447408703259</v>
       </c>
       <c r="W37">
-        <f t="shared" si="2"/>
+        <f>(M37/$Q37)*100</f>
         <v>7.288432101465121</v>
       </c>
       <c r="X37">
-        <f t="shared" si="3"/>
+        <f>(N37/$Q37)*100</f>
         <v>6.0835337852613165</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="3"/>
+        <f>(O37/$Q37)*100</f>
         <v>1.2048983162038049</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="3"/>
+        <f>(P37/$Q37)*100</f>
         <v>2.8515197900721625</v>
       </c>
     </row>
@@ -4037,43 +4037,43 @@
         <v>80.58</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="1"/>
+        <f>SUM(H38,I38,J38,K38,L38,M38,P38)</f>
         <v>613.33000000000004</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f>(H38/$Q38)*100</f>
         <v>66.655797042375227</v>
       </c>
       <c r="S38">
-        <f t="shared" si="2"/>
+        <f>(I38/$Q38)*100</f>
         <v>0.26413187028190371</v>
       </c>
       <c r="T38">
-        <f t="shared" si="2"/>
+        <f>(J38/$Q38)*100</f>
         <v>0.48424176218349013</v>
       </c>
       <c r="U38">
-        <f t="shared" si="2"/>
+        <f>(K38/$Q38)*100</f>
         <v>0.17282702623383822</v>
       </c>
       <c r="V38">
-        <f t="shared" si="2"/>
+        <f>(L38/$Q38)*100</f>
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="2"/>
+        <f>(M38/$Q38)*100</f>
         <v>19.2848874178664</v>
       </c>
       <c r="X38">
-        <f t="shared" si="3"/>
+        <f>(N38/$Q38)*100</f>
         <v>16.674547144277955</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="3"/>
+        <f>(O38/$Q38)*100</f>
         <v>2.6103402735884433</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="3"/>
+        <f>(P38/$Q38)*100</f>
         <v>13.138114881059135</v>
       </c>
     </row>
@@ -4127,43 +4127,43 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="1"/>
+        <f>SUM(H39,I39,J39,K39,L39,M39,P39)</f>
         <v>68.2</v>
       </c>
       <c r="R39">
-        <f t="shared" si="2"/>
+        <f>(H39/$Q39)*100</f>
         <v>99.032258064516128</v>
       </c>
       <c r="S39">
-        <f t="shared" si="2"/>
+        <f>(I39/$Q39)*100</f>
         <v>0</v>
       </c>
       <c r="T39">
-        <f t="shared" si="2"/>
+        <f>(J39/$Q39)*100</f>
         <v>0.11730205278592376</v>
       </c>
       <c r="U39">
-        <f t="shared" si="2"/>
+        <f>(K39/$Q39)*100</f>
         <v>0</v>
       </c>
       <c r="V39">
-        <f t="shared" si="2"/>
+        <f>(L39/$Q39)*100</f>
         <v>0</v>
       </c>
       <c r="W39">
-        <f t="shared" si="2"/>
+        <f>(M39/$Q39)*100</f>
         <v>0.85043988269794712</v>
       </c>
       <c r="X39">
-        <f t="shared" si="3"/>
+        <f>(N39/$Q39)*100</f>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="3"/>
+        <f>(O39/$Q39)*100</f>
         <v>0.85043988269794712</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="3"/>
+        <f>(P39/$Q39)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -4217,43 +4217,43 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
+        <f>SUM(H40,I40,J40,K40,L40,M40,P40)</f>
         <v>1329.75</v>
       </c>
       <c r="R40">
-        <f t="shared" si="2"/>
+        <f>(H40/$Q40)*100</f>
         <v>7.0231246474901292</v>
       </c>
       <c r="S40">
-        <f t="shared" si="2"/>
+        <f>(I40/$Q40)*100</f>
         <v>1.7206241774769693</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
+        <f>(J40/$Q40)*100</f>
         <v>0.13912389546907314</v>
       </c>
       <c r="U40">
-        <f t="shared" si="2"/>
+        <f>(K40/$Q40)*100</f>
         <v>0.71366798270351572</v>
       </c>
       <c r="V40">
-        <f t="shared" si="2"/>
+        <f>(L40/$Q40)*100</f>
         <v>0.89415303628501608</v>
       </c>
       <c r="W40">
-        <f t="shared" si="2"/>
+        <f>(M40/$Q40)*100</f>
         <v>89.5093062605753</v>
       </c>
       <c r="X40">
-        <f t="shared" si="3"/>
+        <f>(N40/$Q40)*100</f>
         <v>89.416055649558189</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="3"/>
+        <f>(O40/$Q40)*100</f>
         <v>9.3250611017108478E-2</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="3"/>
+        <f>(P40/$Q40)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -4307,43 +4307,43 @@
         <v>1985.38</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="1"/>
+        <f>SUM(H41,I41,J41,K41,L41,M41,P41)</f>
         <v>2099.34</v>
       </c>
       <c r="R41">
-        <f t="shared" si="2"/>
+        <f>(H41/$Q41)*100</f>
         <v>1.3861499328360343</v>
       </c>
       <c r="S41">
-        <f t="shared" si="2"/>
+        <f>(I41/$Q41)*100</f>
         <v>0.18481999104480454</v>
       </c>
       <c r="T41">
-        <f t="shared" si="2"/>
+        <f>(J41/$Q41)*100</f>
         <v>4.7634018310516633E-2</v>
       </c>
       <c r="U41">
-        <f t="shared" si="2"/>
+        <f>(K41/$Q41)*100</f>
         <v>4.8110358493621802E-2</v>
       </c>
       <c r="V41">
-        <f t="shared" si="2"/>
+        <f>(L41/$Q41)*100</f>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="2"/>
+        <f>(M41/$Q41)*100</f>
         <v>3.7616584259814982</v>
       </c>
       <c r="X41">
-        <f t="shared" si="3"/>
+        <f>(N41/$Q41)*100</f>
         <v>3.6559109053321519</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="3"/>
+        <f>(O41/$Q41)*100</f>
         <v>0.10574752064934695</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="3"/>
+        <f>(P41/$Q41)*100</f>
         <v>94.571627273333519</v>
       </c>
     </row>
@@ -4397,43 +4397,43 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="1"/>
+        <f>SUM(H42,I42,J42,K42,L42,M42,P42)</f>
         <v>91.71</v>
       </c>
       <c r="R42">
-        <f t="shared" si="2"/>
+        <f>(H42/$Q42)*100</f>
         <v>74.572020499400296</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f>(I42/$Q42)*100</f>
         <v>0.18536691745720207</v>
       </c>
       <c r="T42">
-        <f t="shared" si="2"/>
+        <f>(J42/$Q42)*100</f>
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="shared" si="2"/>
+        <f>(K42/$Q42)*100</f>
         <v>7.6327554247083221E-2</v>
       </c>
       <c r="V42">
-        <f t="shared" si="2"/>
+        <f>(L42/$Q42)*100</f>
         <v>0</v>
       </c>
       <c r="W42">
-        <f t="shared" si="2"/>
+        <f>(M42/$Q42)*100</f>
         <v>25.16628502889543</v>
       </c>
       <c r="X42">
-        <f t="shared" si="3"/>
+        <f>(N42/$Q42)*100</f>
         <v>24.097699269436269</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="3"/>
+        <f>(O42/$Q42)*100</f>
         <v>1.0685857594591648</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="3"/>
+        <f>(P42/$Q42)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -4487,43 +4487,43 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="1"/>
+        <f>SUM(H43,I43,J43,K43,L43,M43,P43)</f>
         <v>120.02</v>
       </c>
       <c r="R43">
-        <f t="shared" si="2"/>
+        <f>(H43/$Q43)*100</f>
         <v>41.609731711381436</v>
       </c>
       <c r="S43">
-        <f t="shared" si="2"/>
+        <f>(I43/$Q43)*100</f>
         <v>5.299116813864357</v>
       </c>
       <c r="T43">
-        <f t="shared" si="2"/>
+        <f>(J43/$Q43)*100</f>
         <v>5.740709881686386</v>
       </c>
       <c r="U43">
-        <f t="shared" si="2"/>
+        <f>(K43/$Q43)*100</f>
         <v>0.73321113147808703</v>
       </c>
       <c r="V43">
-        <f t="shared" si="2"/>
+        <f>(L43/$Q43)*100</f>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="2"/>
+        <f>(M43/$Q43)*100</f>
         <v>46.617230461589735</v>
       </c>
       <c r="X43">
-        <f t="shared" si="3"/>
+        <f>(N43/$Q43)*100</f>
         <v>44.117647058823536</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="3"/>
+        <f>(O43/$Q43)*100</f>
         <v>2.4995834027662056</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="3"/>
+        <f>(P43/$Q43)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -4577,43 +4577,43 @@
         <v>0.25</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="1"/>
+        <f>SUM(H44,I44,J44,K44,L44,M44,P44)</f>
         <v>215.74</v>
       </c>
       <c r="R44">
-        <f t="shared" si="2"/>
+        <f>(H44/$Q44)*100</f>
         <v>90.196532863632157</v>
       </c>
       <c r="S44">
-        <f t="shared" si="2"/>
+        <f>(I44/$Q44)*100</f>
         <v>5.7847408918142209</v>
       </c>
       <c r="T44">
-        <f t="shared" si="2"/>
+        <f>(J44/$Q44)*100</f>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="2"/>
+        <f>(K44/$Q44)*100</f>
         <v>0.12515064429405767</v>
       </c>
       <c r="V44">
-        <f t="shared" si="2"/>
+        <f>(L44/$Q44)*100</f>
         <v>2.3176045239640307E-2</v>
       </c>
       <c r="W44">
-        <f t="shared" si="2"/>
+        <f>(M44/$Q44)*100</f>
         <v>3.7545193288217296</v>
       </c>
       <c r="X44">
-        <f t="shared" si="3"/>
+        <f>(N44/$Q44)*100</f>
         <v>2.6652452025586353</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="3"/>
+        <f>(O44/$Q44)*100</f>
         <v>1.0892741262630945</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="3"/>
+        <f>(P44/$Q44)*100</f>
         <v>0.11588022619820153</v>
       </c>
     </row>
@@ -4667,43 +4667,43 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="1"/>
+        <f>SUM(H45,I45,J45,K45,L45,M45,P45)</f>
         <v>57.26</v>
       </c>
       <c r="R45">
-        <f t="shared" si="2"/>
+        <f>(H45/$Q45)*100</f>
         <v>32.221446035626968</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
+        <f>(I45/$Q45)*100</f>
         <v>11.962975899406217</v>
       </c>
       <c r="T45">
-        <f t="shared" si="2"/>
+        <f>(J45/$Q45)*100</f>
         <v>0.87320991966468742</v>
       </c>
       <c r="U45">
-        <f t="shared" si="2"/>
+        <f>(K45/$Q45)*100</f>
         <v>0.209570380719525</v>
       </c>
       <c r="V45">
-        <f t="shared" si="2"/>
+        <f>(L45/$Q45)*100</f>
         <v>0</v>
       </c>
       <c r="W45">
-        <f t="shared" si="2"/>
+        <f>(M45/$Q45)*100</f>
         <v>54.732797764582607</v>
       </c>
       <c r="X45">
-        <f t="shared" si="3"/>
+        <f>(N45/$Q45)*100</f>
         <v>53.964373035277681</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="3"/>
+        <f>(O45/$Q45)*100</f>
         <v>0.768424729304925</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="3"/>
+        <f>(P45/$Q45)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -4757,43 +4757,43 @@
         <v>1.06</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="1"/>
+        <f>SUM(H46,I46,J46,K46,L46,M46,P46)</f>
         <v>243.22</v>
       </c>
       <c r="R46">
-        <f t="shared" si="2"/>
+        <f>(H46/$Q46)*100</f>
         <v>13.761203848367732</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
+        <f>(I46/$Q46)*100</f>
         <v>6.2330400460488447</v>
       </c>
       <c r="T46">
-        <f t="shared" si="2"/>
+        <f>(J46/$Q46)*100</f>
         <v>0.36592385494613933</v>
       </c>
       <c r="U46">
-        <f t="shared" si="2"/>
+        <f>(K46/$Q46)*100</f>
         <v>0.25491324726584985</v>
       </c>
       <c r="V46">
-        <f t="shared" si="2"/>
+        <f>(L46/$Q46)*100</f>
         <v>12.766219883233287</v>
       </c>
       <c r="W46">
-        <f t="shared" si="2"/>
+        <f>(M46/$Q46)*100</f>
         <v>66.182879697393304</v>
       </c>
       <c r="X46">
-        <f t="shared" si="3"/>
+        <f>(N46/$Q46)*100</f>
         <v>65.993750513937997</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="3"/>
+        <f>(O46/$Q46)*100</f>
         <v>0.18912918345530796</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="3"/>
+        <f>(P46/$Q46)*100</f>
         <v>0.43581942274484003</v>
       </c>
     </row>
@@ -4847,43 +4847,43 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="1"/>
+        <f>SUM(H47,I47,J47,K47,L47,M47,P47)</f>
         <v>24.33</v>
       </c>
       <c r="R47">
-        <f t="shared" si="2"/>
+        <f>(H47/$Q47)*100</f>
         <v>1.5207562679819155</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
+        <f>(I47/$Q47)*100</f>
         <v>1.8495684340320593</v>
       </c>
       <c r="T47">
-        <f t="shared" si="2"/>
+        <f>(J47/$Q47)*100</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" si="2"/>
+        <f>(K47/$Q47)*100</f>
         <v>0.61652281134401976</v>
       </c>
       <c r="V47">
-        <f t="shared" si="2"/>
+        <f>(L47/$Q47)*100</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="shared" si="2"/>
+        <f>(M47/$Q47)*100</f>
         <v>96.013152486641999</v>
       </c>
       <c r="X47">
-        <f t="shared" si="3"/>
+        <f>(N47/$Q47)*100</f>
         <v>96.013152486641999</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="3"/>
+        <f>(O47/$Q47)*100</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="3"/>
+        <f>(P47/$Q47)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -4937,43 +4937,43 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="1"/>
+        <f>SUM(H48,I48,J48,K48,L48,M48,P48)</f>
         <v>228.58999999999997</v>
       </c>
       <c r="R48">
-        <f t="shared" si="2"/>
+        <f>(H48/$Q48)*100</f>
         <v>2.0167111422196951</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
+        <f>(I48/$Q48)*100</f>
         <v>1.0017936042696531</v>
       </c>
       <c r="T48">
-        <f t="shared" si="2"/>
+        <f>(J48/$Q48)*100</f>
         <v>0.15748720416466161</v>
       </c>
       <c r="U48">
-        <f t="shared" si="2"/>
+        <f>(K48/$Q48)*100</f>
         <v>0.39371801041165411</v>
       </c>
       <c r="V48">
-        <f t="shared" si="2"/>
+        <f>(L48/$Q48)*100</f>
         <v>8.2899514414453819</v>
       </c>
       <c r="W48">
-        <f t="shared" ref="W48:W59" si="4">(M48/$Q48)*100</f>
+        <f>(M48/$Q48)*100</f>
         <v>88.140338597488949</v>
       </c>
       <c r="X48">
-        <f t="shared" si="3"/>
+        <f>(N48/$Q48)*100</f>
         <v>88.004724616124946</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="3"/>
+        <f>(O48/$Q48)*100</f>
         <v>0.1356139813640142</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="3"/>
+        <f>(P48/$Q48)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5027,43 +5027,43 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="1"/>
+        <f>SUM(H49,I49,J49,K49,L49,M49,P49)</f>
         <v>455.02</v>
       </c>
       <c r="R49">
-        <f t="shared" si="2"/>
+        <f>(H49/$Q49)*100</f>
         <v>11.46762779658037</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
+        <f>(I49/$Q49)*100</f>
         <v>1.336205001977935</v>
       </c>
       <c r="T49">
-        <f t="shared" si="2"/>
+        <f>(J49/$Q49)*100</f>
         <v>2.197705595358446E-2</v>
       </c>
       <c r="U49">
-        <f t="shared" si="2"/>
+        <f>(K49/$Q49)*100</f>
         <v>0.25053843787086283</v>
       </c>
       <c r="V49">
-        <f t="shared" si="2"/>
+        <f>(L49/$Q49)*100</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="shared" si="4"/>
+        <f>(M49/$Q49)*100</f>
         <v>86.923651707617239</v>
       </c>
       <c r="X49">
-        <f t="shared" si="3"/>
+        <f>(N49/$Q49)*100</f>
         <v>86.750032965583941</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="3"/>
+        <f>(O49/$Q49)*100</f>
         <v>0.17361874203331723</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="3"/>
+        <f>(P49/$Q49)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5117,43 +5117,43 @@
         <v>25.24</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="1"/>
+        <f>SUM(H50,I50,J50,K50,L50,M50,P50)</f>
         <v>312.01</v>
       </c>
       <c r="R50">
-        <f t="shared" si="2"/>
+        <f>(H50/$Q50)*100</f>
         <v>12.97714816832794</v>
       </c>
       <c r="S50">
-        <f t="shared" si="2"/>
+        <f>(I50/$Q50)*100</f>
         <v>4.6472869459312207</v>
       </c>
       <c r="T50">
-        <f t="shared" si="2"/>
+        <f>(J50/$Q50)*100</f>
         <v>4.166533123938336E-2</v>
       </c>
       <c r="U50">
-        <f t="shared" si="2"/>
+        <f>(K50/$Q50)*100</f>
         <v>1.240344860741643</v>
       </c>
       <c r="V50">
-        <f t="shared" si="2"/>
+        <f>(L50/$Q50)*100</f>
         <v>5.589564437037275</v>
       </c>
       <c r="W50">
-        <f t="shared" si="4"/>
+        <f>(M50/$Q50)*100</f>
         <v>67.414505945322261</v>
       </c>
       <c r="X50">
-        <f t="shared" si="3"/>
+        <f>(N50/$Q50)*100</f>
         <v>66.969007403608856</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="3"/>
+        <f>(O50/$Q50)*100</f>
         <v>0.44549854171340658</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="3"/>
+        <f>(P50/$Q50)*100</f>
         <v>8.0894843114002768</v>
       </c>
     </row>
@@ -5207,43 +5207,43 @@
         <v>0.42</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="1"/>
+        <f>SUM(H51,I51,J51,K51,L51,M51,P51)</f>
         <v>1147.69</v>
       </c>
       <c r="R51">
-        <f t="shared" si="2"/>
+        <f>(H51/$Q51)*100</f>
         <v>7.0123465395707907</v>
       </c>
       <c r="S51">
-        <f t="shared" si="2"/>
+        <f>(I51/$Q51)*100</f>
         <v>1.3261420766931837</v>
       </c>
       <c r="T51">
-        <f t="shared" si="2"/>
+        <f>(J51/$Q51)*100</f>
         <v>3.9209194120363514E-2</v>
       </c>
       <c r="U51">
-        <f t="shared" si="2"/>
+        <f>(K51/$Q51)*100</f>
         <v>1.4498688670285529</v>
       </c>
       <c r="V51">
-        <f t="shared" si="2"/>
+        <f>(L51/$Q51)*100</f>
         <v>2.7882093596702941E-2</v>
       </c>
       <c r="W51">
-        <f t="shared" si="4"/>
+        <f>(M51/$Q51)*100</f>
         <v>90.107955981144741</v>
       </c>
       <c r="X51">
-        <f t="shared" si="3"/>
+        <f>(N51/$Q51)*100</f>
         <v>90.053934424801113</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="3"/>
+        <f>(O51/$Q51)*100</f>
         <v>5.402155634361195E-2</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="3"/>
+        <f>(P51/$Q51)*100</f>
         <v>3.6595247845672606E-2</v>
       </c>
     </row>
@@ -5297,43 +5297,43 @@
         <v>0.01</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="1"/>
+        <f>SUM(H52,I52,J52,K52,L52,M52,P52)</f>
         <v>658.62</v>
       </c>
       <c r="R52">
-        <f t="shared" si="2"/>
+        <f>(H52/$Q52)*100</f>
         <v>2.066441954389481</v>
       </c>
       <c r="S52">
-        <f t="shared" si="2"/>
+        <f>(I52/$Q52)*100</f>
         <v>1.3027238771977772</v>
       </c>
       <c r="T52">
-        <f t="shared" si="2"/>
+        <f>(J52/$Q52)*100</f>
         <v>3.0366523944004131E-2</v>
       </c>
       <c r="U52">
-        <f t="shared" si="2"/>
+        <f>(K52/$Q52)*100</f>
         <v>1.9738240563602686E-2</v>
       </c>
       <c r="V52">
-        <f t="shared" si="2"/>
+        <f>(L52/$Q52)*100</f>
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="shared" si="4"/>
+        <f>(M52/$Q52)*100</f>
         <v>96.579211077707939</v>
       </c>
       <c r="X52">
-        <f t="shared" si="3"/>
+        <f>(N52/$Q52)*100</f>
         <v>96.562509489538741</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="3"/>
+        <f>(O52/$Q52)*100</f>
         <v>1.670158816920227E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="3"/>
+        <f>(P52/$Q52)*100</f>
         <v>1.5183261972002064E-3</v>
       </c>
     </row>
@@ -5387,43 +5387,43 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="1"/>
+        <f>SUM(H53,I53,J53,K53,L53,M53,P53)</f>
         <v>536.41000000000008</v>
       </c>
       <c r="R53">
-        <f t="shared" si="2"/>
+        <f>(H53/$Q53)*100</f>
         <v>0.98059320296042185</v>
       </c>
       <c r="S53">
-        <f t="shared" si="2"/>
+        <f>(I53/$Q53)*100</f>
         <v>0.33369996830782417</v>
       </c>
       <c r="T53">
-        <f t="shared" si="2"/>
+        <f>(J53/$Q53)*100</f>
         <v>5.5927368990138136E-2</v>
       </c>
       <c r="U53">
-        <f t="shared" si="2"/>
+        <f>(K53/$Q53)*100</f>
         <v>0.2442161779236032</v>
       </c>
       <c r="V53">
-        <f t="shared" si="2"/>
+        <f>(L53/$Q53)*100</f>
         <v>48.175835648104993</v>
       </c>
       <c r="W53">
-        <f t="shared" si="4"/>
+        <f>(M53/$Q53)*100</f>
         <v>50.209727633713008</v>
       </c>
       <c r="X53">
-        <f t="shared" si="3"/>
+        <f>(N53/$Q53)*100</f>
         <v>50.17617121231892</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="3"/>
+        <f>(O53/$Q53)*100</f>
         <v>3.3556421394082873E-2</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="3"/>
+        <f>(P53/$Q53)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5477,43 +5477,43 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="1"/>
+        <f>SUM(H54,I54,J54,K54,L54,M54,P54)</f>
         <v>21.93</v>
       </c>
       <c r="R54">
-        <f t="shared" si="2"/>
+        <f>(H54/$Q54)*100</f>
         <v>4.5143638850889189</v>
       </c>
       <c r="S54">
-        <f t="shared" si="2"/>
+        <f>(I54/$Q54)*100</f>
         <v>2.2799817601459189</v>
       </c>
       <c r="T54">
-        <f t="shared" si="2"/>
+        <f>(J54/$Q54)*100</f>
         <v>9.1199270405836752E-2</v>
       </c>
       <c r="U54">
-        <f t="shared" si="2"/>
+        <f>(K54/$Q54)*100</f>
         <v>0.36479708162334701</v>
       </c>
       <c r="V54">
-        <f t="shared" si="2"/>
+        <f>(L54/$Q54)*100</f>
         <v>43.866849065207475</v>
       </c>
       <c r="W54">
-        <f t="shared" si="4"/>
+        <f>(M54/$Q54)*100</f>
         <v>48.882808937528502</v>
       </c>
       <c r="X54">
-        <f t="shared" si="3"/>
+        <f>(N54/$Q54)*100</f>
         <v>48.746010031919745</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="3"/>
+        <f>(O54/$Q54)*100</f>
         <v>0.13679890560875513</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="3"/>
+        <f>(P54/$Q54)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5571,39 +5571,39 @@
         <v>1525.16</v>
       </c>
       <c r="R55">
-        <f t="shared" si="2"/>
+        <f>(H55/$Q55)*100</f>
         <v>4.6113194681213772</v>
       </c>
       <c r="S55">
-        <f t="shared" si="2"/>
+        <f>(I55/$Q55)*100</f>
         <v>1.0477589236539118</v>
       </c>
       <c r="T55">
-        <f t="shared" si="2"/>
+        <f>(J55/$Q55)*100</f>
         <v>8.3269952005035536E-2</v>
       </c>
       <c r="U55">
-        <f t="shared" si="2"/>
+        <f>(K55/$Q55)*100</f>
         <v>2.7190589839754518</v>
       </c>
       <c r="V55">
-        <f t="shared" si="2"/>
+        <f>(L55/$Q55)*100</f>
         <v>1.3113378268509533E-3</v>
       </c>
       <c r="W55">
-        <f t="shared" si="4"/>
+        <f>(M55/$Q55)*100</f>
         <v>91.528757638542828</v>
       </c>
       <c r="X55">
-        <f t="shared" si="3"/>
+        <f>(N55/$Q55)*100</f>
         <v>91.461879409373438</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="3"/>
+        <f>(O55/$Q55)*100</f>
         <v>6.6878229169398618E-2</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="3"/>
+        <f>(P55/$Q55)*100</f>
         <v>8.523695874531197E-3</v>
       </c>
     </row>
@@ -5657,43 +5657,43 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="1"/>
+        <f>SUM(H56,I56,J56,K56,L56,M56,P56)</f>
         <v>26.589999999999996</v>
       </c>
       <c r="R56">
-        <f t="shared" si="2"/>
+        <f>(H56/$Q56)*100</f>
         <v>20.571643474990601</v>
       </c>
       <c r="S56">
-        <f t="shared" si="2"/>
+        <f>(I56/$Q56)*100</f>
         <v>5.7540428732606248</v>
       </c>
       <c r="T56">
-        <f t="shared" si="2"/>
+        <f>(J56/$Q56)*100</f>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="shared" si="2"/>
+        <f>(K56/$Q56)*100</f>
         <v>0.63933809702895839</v>
       </c>
       <c r="V56">
-        <f t="shared" si="2"/>
+        <f>(L56/$Q56)*100</f>
         <v>60.925159834524266</v>
       </c>
       <c r="W56">
-        <f t="shared" si="4"/>
+        <f>(M56/$Q56)*100</f>
         <v>11.846558856713052</v>
       </c>
       <c r="X56">
-        <f t="shared" si="3"/>
+        <f>(N56/$Q56)*100</f>
         <v>10.4550582925912</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="3"/>
+        <f>(O56/$Q56)*100</f>
         <v>1.3915005641218505</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="3"/>
+        <f>(P56/$Q56)*100</f>
         <v>0.26325686348251226</v>
       </c>
     </row>
@@ -5747,43 +5747,43 @@
         <v>61.85</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="1"/>
+        <f>SUM(H57,I57,J57,K57,L57,M57,P57)</f>
         <v>311.22000000000003</v>
       </c>
       <c r="R57">
-        <f t="shared" si="2"/>
+        <f>(H57/$Q57)*100</f>
         <v>41.777520724889143</v>
       </c>
       <c r="S57">
-        <f t="shared" si="2"/>
+        <f>(I57/$Q57)*100</f>
         <v>3.280637491163807</v>
       </c>
       <c r="T57">
-        <f t="shared" si="2"/>
+        <f>(J57/$Q57)*100</f>
         <v>3.4862798020692756</v>
       </c>
       <c r="U57">
-        <f t="shared" si="2"/>
+        <f>(K57/$Q57)*100</f>
         <v>4.4984255510571301E-2</v>
       </c>
       <c r="V57">
-        <f t="shared" si="2"/>
+        <f>(L57/$Q57)*100</f>
         <v>4.1899620846989265</v>
       </c>
       <c r="W57">
-        <f t="shared" si="4"/>
+        <f>(M57/$Q57)*100</f>
         <v>27.347214189319452</v>
       </c>
       <c r="X57">
-        <f t="shared" si="3"/>
+        <f>(N57/$Q57)*100</f>
         <v>25.695649379859901</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="3"/>
+        <f>(O57/$Q57)*100</f>
         <v>1.6515648094595461</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="3"/>
+        <f>(P57/$Q57)*100</f>
         <v>19.873401452348819</v>
       </c>
     </row>
@@ -5837,43 +5837,43 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="1"/>
+        <f>SUM(H58,I58,J58,K58,L58,M58,P58)</f>
         <v>600.7399999999999</v>
       </c>
       <c r="R58">
-        <f t="shared" si="2"/>
+        <f>(H58/$Q58)*100</f>
         <v>4.4794753137796723</v>
       </c>
       <c r="S58">
-        <f t="shared" si="2"/>
+        <f>(I58/$Q58)*100</f>
         <v>0.13150447781070015</v>
       </c>
       <c r="T58">
-        <f t="shared" si="2"/>
+        <f>(J58/$Q58)*100</f>
         <v>0.14648600059926092</v>
       </c>
       <c r="U58">
-        <f t="shared" si="2"/>
+        <f>(K58/$Q58)*100</f>
         <v>7.990145487232414E-2</v>
       </c>
       <c r="V58">
-        <f t="shared" si="2"/>
+        <f>(L58/$Q58)*100</f>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="shared" si="4"/>
+        <f>(M58/$Q58)*100</f>
         <v>95.162632752938052</v>
       </c>
       <c r="X58">
-        <f t="shared" si="3"/>
+        <f>(N58/$Q58)*100</f>
         <v>95.089389752638425</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="3"/>
+        <f>(O58/$Q58)*100</f>
         <v>7.3243000299630462E-2</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="3"/>
+        <f>(P58/$Q58)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -5902,51 +5902,75 @@
       <c r="H59" s="2">
         <v>8.9499999999999993</v>
       </c>
+      <c r="I59">
+        <v>1.22</v>
+      </c>
+      <c r="J59">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K59">
+        <v>0.38</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>314.62</v>
+      </c>
+      <c r="N59">
+        <v>314.19</v>
+      </c>
+      <c r="O59">
+        <v>0.43</v>
+      </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="1"/>
-        <v>8.9499999999999993</v>
+        <f>SUM(H59,I59,J59,K59,L59,M59,P59)</f>
+        <v>326.32</v>
       </c>
       <c r="R59">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>(H59/$Q59)*100</f>
+        <v>2.7427065457219904</v>
       </c>
       <c r="S59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>(I59/$Q59)*100</f>
+        <v>0.37386614366266241</v>
       </c>
       <c r="T59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>(J59/$Q59)*100</f>
+        <v>0.35241480755087029</v>
       </c>
       <c r="U59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>(K59/$Q59)*100</f>
+        <v>0.11645011032115715</v>
       </c>
       <c r="V59">
-        <f t="shared" si="2"/>
+        <f>(L59/$Q59)*100</f>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(M59/$Q59)*100</f>
+        <v>96.414562392743321</v>
       </c>
       <c r="X59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(N59/$Q59)*100</f>
+        <v>96.282789899485167</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(O59/$Q59)*100</f>
+        <v>0.13177249325815149</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="3"/>
+        <f>(P59/$Q59)*100</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z59">
+    <sortCondition ref="D2:D59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
